--- a/test/Artefakte - Copy.xlsx
+++ b/test/Artefakte - Copy.xlsx
@@ -638,1009 +638,1009 @@
                   <c:v>-517611300</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-514852400</c:v>
+                  <c:v>-514899300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-512093500</c:v>
+                  <c:v>-512187100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-509334700</c:v>
+                  <c:v>-509474800</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-506575900</c:v>
+                  <c:v>-506762200</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-503817200</c:v>
+                  <c:v>-504049200</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-501058600</c:v>
+                  <c:v>-501335600</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-498300100</c:v>
+                  <c:v>-498621500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-495541800</c:v>
+                  <c:v>-495906700</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-492783500</c:v>
+                  <c:v>-493191000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-490025400</c:v>
+                  <c:v>-490474400</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-487267500</c:v>
+                  <c:v>-487756900</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-484509800</c:v>
+                  <c:v>-485038200</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-481752200</c:v>
+                  <c:v>-482318300</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-478994700</c:v>
+                  <c:v>-479597100</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-476237400</c:v>
+                  <c:v>-476874500</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-473480300</c:v>
+                  <c:v>-474150400</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-470723300</c:v>
+                  <c:v>-471424700</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-467966500</c:v>
+                  <c:v>-468697300</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-465209700</c:v>
+                  <c:v>-465968200</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-462453100</c:v>
+                  <c:v>-463237100</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-459696500</c:v>
+                  <c:v>-460504000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-456940000</c:v>
+                  <c:v>-457768800</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-454183400</c:v>
+                  <c:v>-455031500</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-451426800</c:v>
+                  <c:v>-452291800</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-448670200</c:v>
+                  <c:v>-449549900</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-445913400</c:v>
+                  <c:v>-446805400</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-443156400</c:v>
+                  <c:v>-444058400</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-440399100</c:v>
+                  <c:v>-441308800</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-437641600</c:v>
+                  <c:v>-438556400</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-434883700</c:v>
+                  <c:v>-435801300</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-432125300</c:v>
+                  <c:v>-433043200</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-429366400</c:v>
+                  <c:v>-430282100</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-426606900</c:v>
+                  <c:v>-427518000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-423846700</c:v>
+                  <c:v>-424750600</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-421085700</c:v>
+                  <c:v>-421980000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-418323800</c:v>
+                  <c:v>-419206000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-415560900</c:v>
+                  <c:v>-416428700</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-412796900</c:v>
+                  <c:v>-413647800</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-410031700</c:v>
+                  <c:v>-410863300</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-407265200</c:v>
+                  <c:v>-408075100</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-404497300</c:v>
+                  <c:v>-405283200</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-401727700</c:v>
+                  <c:v>-402487500</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-398956500</c:v>
+                  <c:v>-399687800</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-396183500</c:v>
+                  <c:v>-396884200</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-393408500</c:v>
+                  <c:v>-394076500</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-390631400</c:v>
+                  <c:v>-391264700</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-387852100</c:v>
+                  <c:v>-388448700</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-385070300</c:v>
+                  <c:v>-385628400</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-382286100</c:v>
+                  <c:v>-382803800</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-379499100</c:v>
+                  <c:v>-379974700</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-376709400</c:v>
+                  <c:v>-377141200</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-373916600</c:v>
+                  <c:v>-374303000</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-371120700</c:v>
+                  <c:v>-371460300</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-368321500</c:v>
+                  <c:v>-368612900</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-365518800</c:v>
+                  <c:v>-365760700</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-362712500</c:v>
+                  <c:v>-362903800</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-359902500</c:v>
+                  <c:v>-360042000</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-357088400</c:v>
+                  <c:v>-357175200</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-354270300</c:v>
+                  <c:v>-354303500</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-351447900</c:v>
+                  <c:v>-351426700</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-348621100</c:v>
+                  <c:v>-348544800</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-345789700</c:v>
+                  <c:v>-345657700</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-342953600</c:v>
+                  <c:v>-342765500</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-340112500</c:v>
+                  <c:v>-339868000</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-337266400</c:v>
+                  <c:v>-336965200</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-334415100</c:v>
+                  <c:v>-334057000</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-331558400</c:v>
+                  <c:v>-331143500</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-328696100</c:v>
+                  <c:v>-328224500</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-325828200</c:v>
+                  <c:v>-325300000</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-322954500</c:v>
+                  <c:v>-322370000</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-320074800</c:v>
+                  <c:v>-319434500</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-317189000</c:v>
+                  <c:v>-316493300</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-314297000</c:v>
+                  <c:v>-313546500</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-311398500</c:v>
+                  <c:v>-310594000</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-308493600</c:v>
+                  <c:v>-307635900</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-305582000</c:v>
+                  <c:v>-304671900</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-302663700</c:v>
+                  <c:v>-301702200</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-299738600</c:v>
+                  <c:v>-298726700</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-296806400</c:v>
+                  <c:v>-295745400</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-293867200</c:v>
+                  <c:v>-292758200</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-290920700</c:v>
+                  <c:v>-289765100</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-287967000</c:v>
+                  <c:v>-286766100</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-285005900</c:v>
+                  <c:v>-283761200</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-282037300</c:v>
+                  <c:v>-280750300</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-279061200</c:v>
+                  <c:v>-277733500</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-276077400</c:v>
+                  <c:v>-274710700</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-273086000</c:v>
+                  <c:v>-271681900</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-270086800</c:v>
+                  <c:v>-268647100</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-267079700</c:v>
+                  <c:v>-265606200</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-264064800</c:v>
+                  <c:v>-262559300</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-261042000</c:v>
+                  <c:v>-259506400</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-258011200</c:v>
+                  <c:v>-256447500</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-254972400</c:v>
+                  <c:v>-253382400</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-251925500</c:v>
+                  <c:v>-250311400</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-248870600</c:v>
+                  <c:v>-247234200</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-245807600</c:v>
+                  <c:v>-244151000</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-242736500</c:v>
+                  <c:v>-241061800</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-239657300</c:v>
+                  <c:v>-237966500</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-236570000</c:v>
+                  <c:v>-234865100</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-233474600</c:v>
+                  <c:v>-231757700</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>-230371100</c:v>
+                  <c:v>-228644200</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-227259500</c:v>
+                  <c:v>-225524700</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>-224139900</c:v>
+                  <c:v>-222399200</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>-221012200</c:v>
+                  <c:v>-219267600</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>-217876500</c:v>
+                  <c:v>-216130100</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>-214732900</c:v>
+                  <c:v>-212986600</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>-211581300</c:v>
+                  <c:v>-209837100</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>-208421800</c:v>
+                  <c:v>-206681600</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>-205254400</c:v>
+                  <c:v>-203520300</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>-202079300</c:v>
+                  <c:v>-200353000</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>-198896400</c:v>
+                  <c:v>-197179800</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>-195705800</c:v>
+                  <c:v>-194000800</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>-192507700</c:v>
+                  <c:v>-190816000</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>-189301900</c:v>
+                  <c:v>-187625300</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>-186088700</c:v>
+                  <c:v>-184428800</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>-182868100</c:v>
+                  <c:v>-181226600</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>-179640100</c:v>
+                  <c:v>-178018700</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>-176404900</c:v>
+                  <c:v>-174805000</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>-173162500</c:v>
+                  <c:v>-171585700</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>-169913100</c:v>
+                  <c:v>-168360800</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>-166656600</c:v>
+                  <c:v>-165130300</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>-163393200</c:v>
+                  <c:v>-161894300</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>-160123000</c:v>
+                  <c:v>-158652700</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>-156846000</c:v>
+                  <c:v>-155405700</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>-153562500</c:v>
+                  <c:v>-152153200</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>-150272300</c:v>
+                  <c:v>-148895400</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>-146975800</c:v>
+                  <c:v>-145632200</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>-143672800</c:v>
+                  <c:v>-142363700</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>-140363700</c:v>
+                  <c:v>-139089900</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>-137048400</c:v>
+                  <c:v>-135811000</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>-133727000</c:v>
+                  <c:v>-132526900</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>-130399600</c:v>
+                  <c:v>-129237700</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>-127066400</c:v>
+                  <c:v>-125943400</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>-123727500</c:v>
+                  <c:v>-122644100</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>-120382900</c:v>
+                  <c:v>-119339900</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>-117032700</c:v>
+                  <c:v>-116030800</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>-113677100</c:v>
+                  <c:v>-112716800</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>-110316100</c:v>
+                  <c:v>-109398100</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>-106949900</c:v>
+                  <c:v>-106074600</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>-103578500</c:v>
+                  <c:v>-102746500</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>-100202000</c:v>
+                  <c:v>-99413770</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>-96820550</c:v>
+                  <c:v>-96076470</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>-93434240</c:v>
+                  <c:v>-92734690</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>-90043150</c:v>
+                  <c:v>-89388480</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>-86647380</c:v>
+                  <c:v>-86037900</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>-83247010</c:v>
+                  <c:v>-82683030</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>-79842140</c:v>
+                  <c:v>-79323920</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>-76432870</c:v>
+                  <c:v>-75960640</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>-73019290</c:v>
+                  <c:v>-72593260</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>-69601480</c:v>
+                  <c:v>-69221830</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>-66179530</c:v>
+                  <c:v>-65846440</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>-62753540</c:v>
+                  <c:v>-62467140</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>-59323580</c:v>
+                  <c:v>-59084020</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>-55889740</c:v>
+                  <c:v>-55697120</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>-52452110</c:v>
+                  <c:v>-52306540</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>-49010780</c:v>
+                  <c:v>-48912320</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>-45565820</c:v>
+                  <c:v>-45514560</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>-42117320</c:v>
+                  <c:v>-42113320</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>-38665360</c:v>
+                  <c:v>-38708660</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>-35210030</c:v>
+                  <c:v>-35300680</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>-31751400</c:v>
+                  <c:v>-31889430</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>-28289560</c:v>
+                  <c:v>-28474990</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>-24824580</c:v>
+                  <c:v>-25057440</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>-21356560</c:v>
+                  <c:v>-21636850</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>-17885560</c:v>
+                  <c:v>-18213290</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>-14411660</c:v>
+                  <c:v>-14786840</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>-10934960</c:v>
+                  <c:v>-11357580</c:v>
                 </c:pt>
                 <c:pt idx="168" formatCode="General">
-                  <c:v>-7455524</c:v>
+                  <c:v>-7925582</c:v>
                 </c:pt>
                 <c:pt idx="169" formatCode="General">
-                  <c:v>-3973437</c:v>
+                  <c:v>-4490919</c:v>
                 </c:pt>
                 <c:pt idx="170" formatCode="General">
-                  <c:v>-488778.3</c:v>
+                  <c:v>-1053670</c:v>
                 </c:pt>
                 <c:pt idx="171" formatCode="General">
-                  <c:v>2998370</c:v>
+                  <c:v>2386090</c:v>
                 </c:pt>
                 <c:pt idx="172" formatCode="General">
-                  <c:v>6487926</c:v>
+                  <c:v>5828283</c:v>
                 </c:pt>
                 <c:pt idx="173" formatCode="General">
-                  <c:v>9979808</c:v>
+                  <c:v>9272833</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>13473930</c:v>
+                  <c:v>12719660</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>16970220</c:v>
+                  <c:v>16168700</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>20468580</c:v>
+                  <c:v>19619860</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>23968930</c:v>
+                  <c:v>23073060</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>27471180</c:v>
+                  <c:v>26528240</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>30975250</c:v>
+                  <c:v>29985320</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>34481060</c:v>
+                  <c:v>33444210</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>37988500</c:v>
+                  <c:v>36904850</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>41497480</c:v>
+                  <c:v>40367150</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>45007930</c:v>
+                  <c:v>43831040</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>48519740</c:v>
+                  <c:v>47296430</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>52032820</c:v>
+                  <c:v>50763260</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>55547070</c:v>
+                  <c:v>54231460</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>59062400</c:v>
+                  <c:v>57700930</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>62578700</c:v>
+                  <c:v>61171610</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>66095890</c:v>
+                  <c:v>64643420</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>69613850</c:v>
+                  <c:v>68116290</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>73132480</c:v>
+                  <c:v>71590140</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>76651680</c:v>
+                  <c:v>75064900</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>80171340</c:v>
+                  <c:v>78540490</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>83691370</c:v>
+                  <c:v>82016840</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>87211640</c:v>
+                  <c:v>85493880</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>90732060</c:v>
+                  <c:v>88971530</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>94252500</c:v>
+                  <c:v>92449720</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>97772860</c:v>
+                  <c:v>95928380</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>101293000</c:v>
+                  <c:v>99407440</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>104812900</c:v>
+                  <c:v>102886800</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>108332300</c:v>
+                  <c:v>106366500</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>111851200</c:v>
+                  <c:v>109846300</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>115369500</c:v>
+                  <c:v>113326200</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>118886900</c:v>
+                  <c:v>116806200</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>122403500</c:v>
+                  <c:v>120286200</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>125919100</c:v>
+                  <c:v>123766100</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>129433600</c:v>
+                  <c:v>127245900</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>132946800</c:v>
+                  <c:v>130725400</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>136458700</c:v>
+                  <c:v>134204600</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>139969200</c:v>
+                  <c:v>137683500</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>143478000</c:v>
+                  <c:v>141162000</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>146985200</c:v>
+                  <c:v>144640000</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>150490500</c:v>
+                  <c:v>148117500</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>153993900</c:v>
+                  <c:v>151594400</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>157495300</c:v>
+                  <c:v>155070700</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>160994500</c:v>
+                  <c:v>158546200</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>164491500</c:v>
+                  <c:v>162020900</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>167986100</c:v>
+                  <c:v>165494900</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>171478300</c:v>
+                  <c:v>168967900</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>174967900</c:v>
+                  <c:v>172440000</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>178454800</c:v>
+                  <c:v>175911100</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>181939000</c:v>
+                  <c:v>179381200</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>185420300</c:v>
+                  <c:v>182850100</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>188898700</c:v>
+                  <c:v>186317900</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>192374000</c:v>
+                  <c:v>189784500</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>195846200</c:v>
+                  <c:v>193249900</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>199315200</c:v>
+                  <c:v>196713900</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>202780900</c:v>
+                  <c:v>200176600</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>206243300</c:v>
+                  <c:v>203638000</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>209702200</c:v>
+                  <c:v>207097800</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>213157700</c:v>
+                  <c:v>210556200</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>216609600</c:v>
+                  <c:v>214013100</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>220057900</c:v>
+                  <c:v>217468300</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>223502500</c:v>
+                  <c:v>220922000</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>226943400</c:v>
+                  <c:v>224374000</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>230380600</c:v>
+                  <c:v>227824400</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>233814000</c:v>
+                  <c:v>231273000</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>237243500</c:v>
+                  <c:v>234719900</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>240669200</c:v>
+                  <c:v>238164900</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>244091000</c:v>
+                  <c:v>241608200</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>247508900</c:v>
+                  <c:v>245049500</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>250922900</c:v>
+                  <c:v>248489000</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>254333000</c:v>
+                  <c:v>251926600</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>257739200</c:v>
+                  <c:v>255362200</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>261141500</c:v>
+                  <c:v>258795800</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>264539900</c:v>
+                  <c:v>262227400</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>267934300</c:v>
+                  <c:v>265657000</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>271325000</c:v>
+                  <c:v>269084600</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>274711700</c:v>
+                  <c:v>272510000</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>278094700</c:v>
+                  <c:v>275933400</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>281473800</c:v>
+                  <c:v>279354700</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>284849300</c:v>
+                  <c:v>282773800</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>288221000</c:v>
+                  <c:v>286190700</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>291589200</c:v>
+                  <c:v>289605500</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>294953700</c:v>
+                  <c:v>293018100</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>298314700</c:v>
+                  <c:v>296428500</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>301672300</c:v>
+                  <c:v>299836700</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>305026500</c:v>
+                  <c:v>303242700</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>308377300</c:v>
+                  <c:v>306646400</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>311724900</c:v>
+                  <c:v>310047900</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>315069400</c:v>
+                  <c:v>313447100</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>318410800</c:v>
+                  <c:v>316844100</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>321749300</c:v>
+                  <c:v>320238800</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>325084900</c:v>
+                  <c:v>323631300</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>328417700</c:v>
+                  <c:v>327021400</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>331747800</c:v>
+                  <c:v>330409300</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>335075300</c:v>
+                  <c:v>333795000</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>338400400</c:v>
+                  <c:v>337178400</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>341723100</c:v>
+                  <c:v>340559500</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>345043600</c:v>
+                  <c:v>343938400</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>348361900</c:v>
+                  <c:v>347315000</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>351678200</c:v>
+                  <c:v>350689300</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>354992600</c:v>
+                  <c:v>354061400</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>358305200</c:v>
+                  <c:v>357431300</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>361616100</c:v>
+                  <c:v>360798900</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>364925500</c:v>
+                  <c:v>364164400</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>368233400</c:v>
+                  <c:v>367527600</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>371540000</c:v>
+                  <c:v>370888600</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>374845400</c:v>
+                  <c:v>374247500</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>378149800</c:v>
+                  <c:v>377604200</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>381453100</c:v>
+                  <c:v>380958700</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>384755600</c:v>
+                  <c:v>384311100</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>388057400</c:v>
+                  <c:v>387661400</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>391358600</c:v>
+                  <c:v>391009700</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>394659200</c:v>
+                  <c:v>394355800</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>397959500</c:v>
+                  <c:v>397700000</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>401259400</c:v>
+                  <c:v>401042000</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>404559200</c:v>
+                  <c:v>404382100</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>407858900</c:v>
+                  <c:v>407720300</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>411158600</c:v>
+                  <c:v>411056400</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>414458300</c:v>
+                  <c:v>414390700</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>417758300</c:v>
+                  <c:v>417723000</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>421058600</c:v>
+                  <c:v>421053500</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>424359300</c:v>
+                  <c:v>424382200</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>427660400</c:v>
+                  <c:v>427709000</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>430962000</c:v>
+                  <c:v>431034100</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>434264200</c:v>
+                  <c:v>434357400</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>437567100</c:v>
+                  <c:v>437679100</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>440870800</c:v>
+                  <c:v>440999000</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>444175200</c:v>
+                  <c:v>444317400</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>447480500</c:v>
+                  <c:v>447634100</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>450786700</c:v>
+                  <c:v>450949300</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>454093800</c:v>
+                  <c:v>454262900</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>457401900</c:v>
+                  <c:v>457575000</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>460711000</c:v>
+                  <c:v>460885700</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>464021100</c:v>
+                  <c:v>464195000</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>467332400</c:v>
+                  <c:v>467502900</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>470644700</c:v>
+                  <c:v>470809500</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>473958100</c:v>
+                  <c:v>474114800</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>477272600</c:v>
+                  <c:v>477418800</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>480588300</c:v>
+                  <c:v>480721600</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>483905000</c:v>
+                  <c:v>484023300</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>487222900</c:v>
+                  <c:v>487323900</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>490541900</c:v>
+                  <c:v>490623400</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>493861900</c:v>
+                  <c:v>493921800</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>497183000</c:v>
+                  <c:v>497219300</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>500505200</c:v>
+                  <c:v>500515800</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>503828400</c:v>
+                  <c:v>503811500</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>507152600</c:v>
+                  <c:v>507106300</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>510477700</c:v>
+                  <c:v>510400300</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>513803700</c:v>
+                  <c:v>513693600</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>517130700</c:v>
+                  <c:v>516986200</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>520458400</c:v>
+                  <c:v>520278100</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>523786800</c:v>
+                  <c:v>523569400</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>527116100</c:v>
+                  <c:v>526860200</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>530445900</c:v>
+                  <c:v>530150500</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>533776400</c:v>
+                  <c:v>533440300</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>537107400</c:v>
+                  <c:v>536729700</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>540438800</c:v>
+                  <c:v>540018800</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>543770800</c:v>
+                  <c:v>543307600</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>547103000</c:v>
+                  <c:v>546596100</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>550435500</c:v>
+                  <c:v>549884400</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>553768300</c:v>
+                  <c:v>553172500</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>557101100</c:v>
+                  <c:v>556460600</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>560434000</c:v>
+                  <c:v>559748600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1655,1009 +1655,1009 @@
                   <c:v>-124471200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-121869000</c:v>
+                  <c:v>-121927400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-119268100</c:v>
+                  <c:v>-119384700</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-116669800</c:v>
+                  <c:v>-116844600</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-114075300</c:v>
+                  <c:v>-114308000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-111486000</c:v>
+                  <c:v>-111776400</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-108903100</c:v>
+                  <c:v>-109250800</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-106327800</c:v>
+                  <c:v>-106732500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-103761400</c:v>
+                  <c:v>-104222700</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-101205200</c:v>
+                  <c:v>-101722400</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-98660230</c:v>
+                  <c:v>-99232870</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-96127830</c:v>
+                  <c:v>-96755220</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-93609120</c:v>
+                  <c:v>-94290540</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-91105240</c:v>
+                  <c:v>-91839920</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-88617310</c:v>
+                  <c:v>-89404400</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-86146420</c:v>
+                  <c:v>-86985020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-83693640</c:v>
+                  <c:v>-84582760</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-81259980</c:v>
+                  <c:v>-82198600</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-78846460</c:v>
+                  <c:v>-79833470</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-76454020</c:v>
+                  <c:v>-77488270</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-74083620</c:v>
+                  <c:v>-75163870</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-71736120</c:v>
+                  <c:v>-72861100</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-69412380</c:v>
+                  <c:v>-70580760</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-67113230</c:v>
+                  <c:v>-68323590</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-64839430</c:v>
+                  <c:v>-66090310</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-62591720</c:v>
+                  <c:v>-63881590</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-60370770</c:v>
+                  <c:v>-61698060</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-58177250</c:v>
+                  <c:v>-59540320</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-56011750</c:v>
+                  <c:v>-57408920</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-53874840</c:v>
+                  <c:v>-55304340</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-51767020</c:v>
+                  <c:v>-53227070</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-49688770</c:v>
+                  <c:v>-51177510</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-47640510</c:v>
+                  <c:v>-49156030</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-45622620</c:v>
+                  <c:v>-47162970</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-43635420</c:v>
+                  <c:v>-45198610</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-41679220</c:v>
+                  <c:v>-43263200</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-39754260</c:v>
+                  <c:v>-41356920</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-37860720</c:v>
+                  <c:v>-39479940</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-35998760</c:v>
+                  <c:v>-37632360</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-34168500</c:v>
+                  <c:v>-35814260</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-32369990</c:v>
+                  <c:v>-34025670</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-30603270</c:v>
+                  <c:v>-32266570</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-28868310</c:v>
+                  <c:v>-30536920</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-27165050</c:v>
+                  <c:v>-28836620</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-25493400</c:v>
+                  <c:v>-27165550</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-23853210</c:v>
+                  <c:v>-25523550</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-22244320</c:v>
+                  <c:v>-23910420</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-20666510</c:v>
+                  <c:v>-22325920</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-19119520</c:v>
+                  <c:v>-20769790</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-17603090</c:v>
+                  <c:v>-19241750</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-16116890</c:v>
+                  <c:v>-17741460</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-14660580</c:v>
+                  <c:v>-16268570</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-13233790</c:v>
+                  <c:v>-14822710</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-11836110</c:v>
+                  <c:v>-13403480</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-10467120</c:v>
-                </c:pt>
-                <c:pt idx="55" formatCode="General">
-                  <c:v>-9126368</c:v>
+                  <c:v>-12010440</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-10643160</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="General">
-                  <c:v>-7813372</c:v>
+                  <c:v>-9301178</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="General">
-                  <c:v>-6527639</c:v>
+                  <c:v>-7984003</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="General">
-                  <c:v>-5268655</c:v>
+                  <c:v>-6691144</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="General">
-                  <c:v>-4035886</c:v>
+                  <c:v>-5422090</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="General">
-                  <c:v>-2828786</c:v>
+                  <c:v>-4176321</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="General">
-                  <c:v>-1646792</c:v>
+                  <c:v>-2953306</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="General">
-                  <c:v>-489331.8</c:v>
+                  <c:v>-1752506</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="General">
-                  <c:v>644178</c:v>
+                  <c:v>-573378.5</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="General">
-                  <c:v>1754328</c:v>
+                  <c:v>584625.80000000005</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="General">
-                  <c:v>2841717</c:v>
+                  <c:v>1722056</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="General">
-                  <c:v>3906945</c:v>
+                  <c:v>2839464</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="General">
-                  <c:v>4950618</c:v>
+                  <c:v>3937397</c:v>
                 </c:pt>
                 <c:pt idx="68" formatCode="General">
-                  <c:v>5973340</c:v>
+                  <c:v>5016401</c:v>
                 </c:pt>
                 <c:pt idx="69" formatCode="General">
-                  <c:v>6975717</c:v>
+                  <c:v>6077017</c:v>
                 </c:pt>
                 <c:pt idx="70" formatCode="General">
-                  <c:v>7958349</c:v>
+                  <c:v>7119778</c:v>
                 </c:pt>
                 <c:pt idx="71" formatCode="General">
-                  <c:v>8921835</c:v>
+                  <c:v>8145210</c:v>
                 </c:pt>
                 <c:pt idx="72" formatCode="General">
-                  <c:v>9866766</c:v>
+                  <c:v>9153827</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>10793730</c:v>
+                  <c:v>10146130</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>11703290</c:v>
+                  <c:v>11122620</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>12596030</c:v>
+                  <c:v>12083760</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>13472490</c:v>
+                  <c:v>13030030</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>14333200</c:v>
+                  <c:v>13961850</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>15178710</c:v>
+                  <c:v>14879660</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>16009510</c:v>
+                  <c:v>15783860</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>16826110</c:v>
+                  <c:v>16674840</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>17628960</c:v>
+                  <c:v>17552960</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>18418540</c:v>
+                  <c:v>18418570</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>19195270</c:v>
+                  <c:v>19271990</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>19959570</c:v>
+                  <c:v>20113500</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>20711840</c:v>
+                  <c:v>20943400</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>21452440</c:v>
+                  <c:v>21761910</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>22181730</c:v>
+                  <c:v>22569270</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>22900040</c:v>
+                  <c:v>23365670</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>23607650</c:v>
+                  <c:v>24151280</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>24304860</c:v>
+                  <c:v>24926260</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>24991920</c:v>
+                  <c:v>25690710</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>25669060</c:v>
+                  <c:v>26444740</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>26336480</c:v>
+                  <c:v>27188410</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>26994370</c:v>
+                  <c:v>27921770</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>27642880</c:v>
+                  <c:v>28644830</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>28282160</c:v>
+                  <c:v>29357600</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>28912300</c:v>
+                  <c:v>30060040</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>29533390</c:v>
+                  <c:v>30752110</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>30145510</c:v>
+                  <c:v>31433710</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>30748680</c:v>
+                  <c:v>32104770</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>31342930</c:v>
+                  <c:v>32765160</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>31928260</c:v>
+                  <c:v>33414740</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>32504650</c:v>
+                  <c:v>34053350</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>33072050</c:v>
+                  <c:v>34680820</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>33630400</c:v>
+                  <c:v>35296960</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>34179620</c:v>
+                  <c:v>35901560</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>34719610</c:v>
+                  <c:v>36494390</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>35250260</c:v>
+                  <c:v>37075210</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>35771440</c:v>
+                  <c:v>37643780</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>36283020</c:v>
+                  <c:v>38199840</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>36784820</c:v>
+                  <c:v>38743110</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>37276700</c:v>
+                  <c:v>39273310</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>37758460</c:v>
+                  <c:v>39790170</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>38229910</c:v>
+                  <c:v>40293380</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>38690870</c:v>
+                  <c:v>40782660</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>39141120</c:v>
+                  <c:v>41257700</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>39580460</c:v>
+                  <c:v>41718200</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>40008660</c:v>
+                  <c:v>42163870</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>40425520</c:v>
+                  <c:v>42594400</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>40830800</c:v>
+                  <c:v>43009510</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>41224290</c:v>
+                  <c:v>43408900</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>41605760</c:v>
+                  <c:v>43792280</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>41974990</c:v>
+                  <c:v>44159390</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>42331760</c:v>
+                  <c:v>44509940</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>42675850</c:v>
+                  <c:v>44843680</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>43007050</c:v>
+                  <c:v>45160360</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>43325150</c:v>
+                  <c:v>45459740</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>43629960</c:v>
+                  <c:v>45741590</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>43921260</c:v>
+                  <c:v>46005720</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>44198900</c:v>
+                  <c:v>46251920</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>44462680</c:v>
+                  <c:v>46480010</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>44712440</c:v>
+                  <c:v>46689840</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>44948030</c:v>
+                  <c:v>46881250</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>45169310</c:v>
+                  <c:v>47054140</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>45376140</c:v>
+                  <c:v>47208380</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>45568400</c:v>
+                  <c:v>47343900</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>45746000</c:v>
+                  <c:v>47460630</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>45908850</c:v>
+                  <c:v>47558530</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>46056860</c:v>
+                  <c:v>47637570</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>46189990</c:v>
+                  <c:v>47697760</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>46308180</c:v>
+                  <c:v>47739120</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>46411400</c:v>
+                  <c:v>47761700</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>46499650</c:v>
+                  <c:v>47765560</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>46572920</c:v>
+                  <c:v>47750780</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>46631230</c:v>
+                  <c:v>47717490</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>46674620</c:v>
+                  <c:v>47665820</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>46703140</c:v>
+                  <c:v>47595920</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>46716860</c:v>
+                  <c:v>47507970</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>46715840</c:v>
+                  <c:v>47402170</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>46700200</c:v>
+                  <c:v>47278740</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>46670040</c:v>
+                  <c:v>47137910</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>46625480</c:v>
+                  <c:v>46979960</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>46566680</c:v>
+                  <c:v>46805150</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>46493780</c:v>
+                  <c:v>46613780</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>46406940</c:v>
+                  <c:v>46406180</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>46306350</c:v>
+                  <c:v>46182660</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>46192200</c:v>
+                  <c:v>45943570</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>46064700</c:v>
+                  <c:v>45689280</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>45924040</c:v>
+                  <c:v>45420170</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>45770460</c:v>
+                  <c:v>45136610</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>45604180</c:v>
+                  <c:v>44839020</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>45425450</c:v>
+                  <c:v>44527790</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>45234510</c:v>
+                  <c:v>44203340</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>45031610</c:v>
+                  <c:v>43866110</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>44817000</c:v>
+                  <c:v>43516530</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>44590960</c:v>
+                  <c:v>43155030</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>44353740</c:v>
+                  <c:v>42782060</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>44105610</c:v>
+                  <c:v>42398060</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>43846840</c:v>
+                  <c:v>42003480</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>43577710</c:v>
+                  <c:v>41598760</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>43298470</c:v>
+                  <c:v>41184370</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>43009390</c:v>
+                  <c:v>40760730</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>42710740</c:v>
+                  <c:v>40328300</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>42402790</c:v>
+                  <c:v>39887500</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>42085780</c:v>
+                  <c:v>39438760</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>41759970</c:v>
+                  <c:v>38982510</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>41425610</c:v>
+                  <c:v>38519170</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>41082930</c:v>
+                  <c:v>38049130</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>40732160</c:v>
+                  <c:v>37572800</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>40373540</c:v>
+                  <c:v>37090540</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>40007270</c:v>
+                  <c:v>36602740</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>39633550</c:v>
+                  <c:v>36109750</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>39252580</c:v>
+                  <c:v>35611910</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>38864540</c:v>
+                  <c:v>35109540</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>38469600</c:v>
+                  <c:v>34602960</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>38067920</c:v>
+                  <c:v>34092450</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>37659640</c:v>
+                  <c:v>33578290</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>37244900</c:v>
+                  <c:v>33060740</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>36823820</c:v>
+                  <c:v>32540020</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>36396490</c:v>
+                  <c:v>32016370</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>35963020</c:v>
+                  <c:v>31489970</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>35523480</c:v>
+                  <c:v>30961010</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>35077930</c:v>
+                  <c:v>30429630</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>34626420</c:v>
+                  <c:v>29895980</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>34169000</c:v>
+                  <c:v>29360180</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>33705670</c:v>
+                  <c:v>28822310</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>33236450</c:v>
+                  <c:v>28282460</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>32761330</c:v>
+                  <c:v>27740670</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>32280290</c:v>
+                  <c:v>27196990</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>31793300</c:v>
+                  <c:v>26651430</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>31300320</c:v>
+                  <c:v>26103980</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>30801290</c:v>
+                  <c:v>25554620</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>30296150</c:v>
+                  <c:v>25003310</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>29784810</c:v>
+                  <c:v>24449980</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>29267190</c:v>
+                  <c:v>23894580</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>28743200</c:v>
+                  <c:v>23336990</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>28212720</c:v>
+                  <c:v>22777120</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>27675650</c:v>
+                  <c:v>22214830</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>27131860</c:v>
+                  <c:v>21650010</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>26581240</c:v>
+                  <c:v>21082490</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>26023640</c:v>
+                  <c:v>20512120</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>25458950</c:v>
+                  <c:v>19938720</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>24887010</c:v>
+                  <c:v>19362130</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>24307700</c:v>
+                  <c:v>18782150</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>23720880</c:v>
+                  <c:v>18198580</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>23126410</c:v>
+                  <c:v>17611240</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>22524150</c:v>
+                  <c:v>17019920</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>21913970</c:v>
+                  <c:v>16424410</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>21295750</c:v>
+                  <c:v>15824510</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>20669350</c:v>
+                  <c:v>15220000</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>20034680</c:v>
+                  <c:v>14610700</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>19391600</c:v>
+                  <c:v>13996380</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>18740040</c:v>
+                  <c:v>13376870</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>18079890</c:v>
+                  <c:v>12751950</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>17411090</c:v>
+                  <c:v>12121460</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>16733560</c:v>
+                  <c:v>11485220</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>16047260</c:v>
+                  <c:v>10843050</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>15352140</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>14648190</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>13935410</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>13213800</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>12483400</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>11744260</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>10996460</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>10240100</c:v>
+                  <c:v>10194810</c:v>
+                </c:pt>
+                <c:pt idx="229" formatCode="General">
+                  <c:v>9540346</c:v>
+                </c:pt>
+                <c:pt idx="230" formatCode="General">
+                  <c:v>8879542</c:v>
+                </c:pt>
+                <c:pt idx="231" formatCode="General">
+                  <c:v>8212281</c:v>
+                </c:pt>
+                <c:pt idx="232" formatCode="General">
+                  <c:v>7538466</c:v>
+                </c:pt>
+                <c:pt idx="233" formatCode="General">
+                  <c:v>6858019</c:v>
+                </c:pt>
+                <c:pt idx="234" formatCode="General">
+                  <c:v>6170881</c:v>
+                </c:pt>
+                <c:pt idx="235" formatCode="General">
+                  <c:v>5477011</c:v>
                 </c:pt>
                 <c:pt idx="236" formatCode="General">
-                  <c:v>9475273</c:v>
+                  <c:v>4776390</c:v>
                 </c:pt>
                 <c:pt idx="237" formatCode="General">
-                  <c:v>8702138</c:v>
+                  <c:v>4069020</c:v>
                 </c:pt>
                 <c:pt idx="238" formatCode="General">
-                  <c:v>7920853</c:v>
+                  <c:v>3354928</c:v>
                 </c:pt>
                 <c:pt idx="239" formatCode="General">
-                  <c:v>7131604</c:v>
+                  <c:v>2634161</c:v>
                 </c:pt>
                 <c:pt idx="240" formatCode="General">
-                  <c:v>6334604</c:v>
+                  <c:v>1906792</c:v>
                 </c:pt>
                 <c:pt idx="241" formatCode="General">
-                  <c:v>5530088</c:v>
+                  <c:v>1172919</c:v>
                 </c:pt>
                 <c:pt idx="242" formatCode="General">
-                  <c:v>4718318</c:v>
+                  <c:v>432664.3</c:v>
                 </c:pt>
                 <c:pt idx="243" formatCode="General">
-                  <c:v>3899582</c:v>
+                  <c:v>-313822.40000000002</c:v>
                 </c:pt>
                 <c:pt idx="244" formatCode="General">
-                  <c:v>3074191</c:v>
+                  <c:v>-1066366</c:v>
                 </c:pt>
                 <c:pt idx="245" formatCode="General">
-                  <c:v>2242484</c:v>
+                  <c:v>-1824766</c:v>
                 </c:pt>
                 <c:pt idx="246" formatCode="General">
-                  <c:v>1404826</c:v>
+                  <c:v>-2588791</c:v>
                 </c:pt>
                 <c:pt idx="247" formatCode="General">
-                  <c:v>561604.9</c:v>
+                  <c:v>-3358188</c:v>
                 </c:pt>
                 <c:pt idx="248" formatCode="General">
-                  <c:v>-286762.90000000002</c:v>
+                  <c:v>-4132673</c:v>
                 </c:pt>
                 <c:pt idx="249" formatCode="General">
-                  <c:v>-1139837</c:v>
+                  <c:v>-4911936</c:v>
                 </c:pt>
                 <c:pt idx="250" formatCode="General">
-                  <c:v>-1997153</c:v>
+                  <c:v>-5695641</c:v>
                 </c:pt>
                 <c:pt idx="251" formatCode="General">
-                  <c:v>-2858220</c:v>
+                  <c:v>-6483424</c:v>
                 </c:pt>
                 <c:pt idx="252" formatCode="General">
-                  <c:v>-3722524</c:v>
+                  <c:v>-7274895</c:v>
                 </c:pt>
                 <c:pt idx="253" formatCode="General">
-                  <c:v>-4589529</c:v>
+                  <c:v>-8069639</c:v>
                 </c:pt>
                 <c:pt idx="254" formatCode="General">
-                  <c:v>-5458675</c:v>
+                  <c:v>-8867214</c:v>
                 </c:pt>
                 <c:pt idx="255" formatCode="General">
-                  <c:v>-6329380</c:v>
-                </c:pt>
-                <c:pt idx="256" formatCode="General">
-                  <c:v>-7201040</c:v>
-                </c:pt>
-                <c:pt idx="257" formatCode="General">
-                  <c:v>-8073033</c:v>
-                </c:pt>
-                <c:pt idx="258" formatCode="General">
-                  <c:v>-8944716</c:v>
-                </c:pt>
-                <c:pt idx="259" formatCode="General">
-                  <c:v>-9815429</c:v>
+                  <c:v>-9667154</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>-10468970</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>-11272150</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>-12076150</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>-12880420</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>-10684500</c:v>
+                  <c:v>-13684380</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>-11551220</c:v>
+                  <c:v>-14487430</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>-12414900</c:v>
+                  <c:v>-15288960</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>-13274810</c:v>
+                  <c:v>-16088330</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>-14130210</c:v>
+                  <c:v>-16884890</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>-14980370</c:v>
+                  <c:v>-17677990</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>-15824540</c:v>
+                  <c:v>-18466940</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>-16661950</c:v>
+                  <c:v>-19251070</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>-17491850</c:v>
+                  <c:v>-20029670</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>-18313460</c:v>
+                  <c:v>-20802040</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>-19126020</c:v>
+                  <c:v>-21567470</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>-19928760</c:v>
+                  <c:v>-22325250</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>-20720900</c:v>
+                  <c:v>-23074660</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>-21501690</c:v>
+                  <c:v>-23814980</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>-22270360</c:v>
+                  <c:v>-24545500</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>-23026170</c:v>
+                  <c:v>-25265500</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>-23768360</c:v>
+                  <c:v>-25974270</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>-24496210</c:v>
+                  <c:v>-26671110</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>-25208990</c:v>
+                  <c:v>-27355320</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>-25906010</c:v>
+                  <c:v>-28026230</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>-26586560</c:v>
+                  <c:v>-28683160</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>-27249980</c:v>
+                  <c:v>-29325450</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>-27895620</c:v>
+                  <c:v>-29952460</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>-28522850</c:v>
+                  <c:v>-30563580</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>-29131060</c:v>
+                  <c:v>-31158200</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>-29719670</c:v>
+                  <c:v>-31735730</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>-30288130</c:v>
+                  <c:v>-32295630</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>-30835910</c:v>
+                  <c:v>-32837350</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>-31362510</c:v>
+                  <c:v>-33360390</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>-31867480</c:v>
+                  <c:v>-33864280</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>-32350380</c:v>
+                  <c:v>-34348570</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>-32810820</c:v>
+                  <c:v>-34812840</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>-33248420</c:v>
+                  <c:v>-35256700</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>-33662880</c:v>
+                  <c:v>-35679820</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>-34053910</c:v>
+                  <c:v>-36081870</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>-34421250</c:v>
+                  <c:v>-36462580</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>-34764710</c:v>
+                  <c:v>-36821720</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>-35084110</c:v>
+                  <c:v>-37159080</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>-35379340</c:v>
+                  <c:v>-37474490</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>-35650320</c:v>
+                  <c:v>-37767850</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>-35897000</c:v>
+                  <c:v>-38039070</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>-36119400</c:v>
+                  <c:v>-38288110</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>-36317560</c:v>
+                  <c:v>-38514990</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>-36491590</c:v>
+                  <c:v>-38719740</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>-36641610</c:v>
+                  <c:v>-38902470</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>-36767820</c:v>
+                  <c:v>-39063300</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>-36870450</c:v>
+                  <c:v>-39202420</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>-36949770</c:v>
+                  <c:v>-39320050</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>-37006100</c:v>
+                  <c:v>-39416450</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>-37039800</c:v>
+                  <c:v>-39491930</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>-37051290</c:v>
+                  <c:v>-39546840</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>-37041000</c:v>
+                  <c:v>-39581580</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>-37009440</c:v>
+                  <c:v>-39596570</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>-36957140</c:v>
+                  <c:v>-39592300</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>-36884680</c:v>
+                  <c:v>-39569280</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>-36792670</c:v>
+                  <c:v>-39528060</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>-36681760</c:v>
+                  <c:v>-39469250</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>-36552650</c:v>
+                  <c:v>-39393460</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>-36406070</c:v>
+                  <c:v>-39301380</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>-36242780</c:v>
+                  <c:v>-39193690</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>-36063580</c:v>
+                  <c:v>-39071130</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>-35869290</c:v>
+                  <c:v>-38934480</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>-35660790</c:v>
+                  <c:v>-38784520</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>-35438960</c:v>
+                  <c:v>-38622080</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>-35204720</c:v>
+                  <c:v>-38448020</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>-34959000</c:v>
+                  <c:v>-38263210</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>-34702790</c:v>
+                  <c:v>-38068560</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>-34437060</c:v>
+                  <c:v>-37864980</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>-34162810</c:v>
+                  <c:v>-37653410</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>-33881080</c:v>
+                  <c:v>-37434830</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>-33592910</c:v>
+                  <c:v>-37210200</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>-33299350</c:v>
+                  <c:v>-36980500</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>-33001470</c:v>
+                  <c:v>-36746740</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>-32700330</c:v>
+                  <c:v>-36509930</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>-32397020</c:v>
+                  <c:v>-36271080</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>-32092620</c:v>
+                  <c:v>-36031210</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10746,11 +10746,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="316801520"/>
-        <c:axId val="316803480"/>
+        <c:axId val="386257432"/>
+        <c:axId val="386257824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="316801520"/>
+        <c:axId val="386257432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10788,12 +10788,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316803480"/>
+        <c:crossAx val="386257824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="316803480"/>
+        <c:axId val="386257824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10840,7 +10840,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316801520"/>
+        <c:crossAx val="386257432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11496,10 +11496,10 @@
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>195943</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>54428</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>53008</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11786,8 +11786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1339"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11822,10 +11822,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>-514852400</v>
+        <v>-514899300</v>
       </c>
       <c r="B3" s="1">
-        <v>-121869000</v>
+        <v>-121927400</v>
       </c>
       <c r="C3" s="1">
         <v>-515478700</v>
@@ -11836,10 +11836,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>-512093500</v>
+        <v>-512187100</v>
       </c>
       <c r="B4" s="1">
-        <v>-119268100</v>
+        <v>-119384700</v>
       </c>
       <c r="C4" s="1">
         <v>-512138800</v>
@@ -11850,10 +11850,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>-509334700</v>
+        <v>-509474800</v>
       </c>
       <c r="B5" s="1">
-        <v>-116669800</v>
+        <v>-116844600</v>
       </c>
       <c r="C5" s="1">
         <v>-509444900</v>
@@ -11864,10 +11864,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>-506575900</v>
+        <v>-506762200</v>
       </c>
       <c r="B6" s="1">
-        <v>-114075300</v>
+        <v>-114308000</v>
       </c>
       <c r="C6" s="1">
         <v>-505391500</v>
@@ -11878,10 +11878,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>-503817200</v>
+        <v>-504049200</v>
       </c>
       <c r="B7" s="1">
-        <v>-111486000</v>
+        <v>-111776400</v>
       </c>
       <c r="C7" s="1">
         <v>-504381100</v>
@@ -11892,10 +11892,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>-501058600</v>
+        <v>-501335600</v>
       </c>
       <c r="B8" s="1">
-        <v>-108903100</v>
+        <v>-109250800</v>
       </c>
       <c r="C8" s="1">
         <v>-503425900</v>
@@ -11906,10 +11906,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>-498300100</v>
+        <v>-498621500</v>
       </c>
       <c r="B9" s="1">
-        <v>-106327800</v>
+        <v>-106732500</v>
       </c>
       <c r="C9" s="1">
         <v>-502520000</v>
@@ -11920,10 +11920,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>-495541800</v>
+        <v>-495906700</v>
       </c>
       <c r="B10" s="1">
-        <v>-103761400</v>
+        <v>-104222700</v>
       </c>
       <c r="C10" s="1">
         <v>-501659000</v>
@@ -11934,10 +11934,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>-492783500</v>
+        <v>-493191000</v>
       </c>
       <c r="B11" s="1">
-        <v>-101205200</v>
+        <v>-101722400</v>
       </c>
       <c r="C11" s="1">
         <v>-500838600</v>
@@ -11948,10 +11948,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>-490025400</v>
+        <v>-490474400</v>
       </c>
       <c r="B12" s="1">
-        <v>-98660230</v>
+        <v>-99232870</v>
       </c>
       <c r="C12" s="1">
         <v>-500054600</v>
@@ -11962,10 +11962,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>-487267500</v>
+        <v>-487756900</v>
       </c>
       <c r="B13" s="1">
-        <v>-96127830</v>
+        <v>-96755220</v>
       </c>
       <c r="C13" s="1">
         <v>-499304300</v>
@@ -11976,10 +11976,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>-484509800</v>
+        <v>-485038200</v>
       </c>
       <c r="B14" s="1">
-        <v>-93609120</v>
+        <v>-94290540</v>
       </c>
       <c r="C14" s="1">
         <v>-498584300</v>
@@ -11990,10 +11990,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>-481752200</v>
+        <v>-482318300</v>
       </c>
       <c r="B15" s="1">
-        <v>-91105240</v>
+        <v>-91839920</v>
       </c>
       <c r="C15" s="1">
         <v>-497887100</v>
@@ -12004,10 +12004,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>-478994700</v>
+        <v>-479597100</v>
       </c>
       <c r="B16" s="1">
-        <v>-88617310</v>
+        <v>-89404400</v>
       </c>
       <c r="C16" s="1">
         <v>-497209500</v>
@@ -12018,10 +12018,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>-476237400</v>
+        <v>-476874500</v>
       </c>
       <c r="B17" s="1">
-        <v>-86146420</v>
+        <v>-86985020</v>
       </c>
       <c r="C17" s="1">
         <v>-496550700</v>
@@ -12032,10 +12032,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>-473480300</v>
+        <v>-474150400</v>
       </c>
       <c r="B18" s="1">
-        <v>-83693640</v>
+        <v>-84582760</v>
       </c>
       <c r="C18" s="1">
         <v>-495909400</v>
@@ -12046,10 +12046,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>-470723300</v>
+        <v>-471424700</v>
       </c>
       <c r="B19" s="1">
-        <v>-81259980</v>
+        <v>-82198600</v>
       </c>
       <c r="C19" s="1">
         <v>-495284700</v>
@@ -12060,10 +12060,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>-467966500</v>
+        <v>-468697300</v>
       </c>
       <c r="B20" s="1">
-        <v>-78846460</v>
+        <v>-79833470</v>
       </c>
       <c r="C20" s="1">
         <v>-494675800</v>
@@ -12074,10 +12074,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>-465209700</v>
+        <v>-465968200</v>
       </c>
       <c r="B21" s="1">
-        <v>-76454020</v>
+        <v>-77488270</v>
       </c>
       <c r="C21" s="1">
         <v>-494082000</v>
@@ -12088,10 +12088,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>-462453100</v>
+        <v>-463237100</v>
       </c>
       <c r="B22" s="1">
-        <v>-74083620</v>
+        <v>-75163870</v>
       </c>
       <c r="C22" s="1">
         <v>-493502200</v>
@@ -12102,10 +12102,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>-459696500</v>
+        <v>-460504000</v>
       </c>
       <c r="B23" s="1">
-        <v>-71736120</v>
+        <v>-72861100</v>
       </c>
       <c r="C23" s="1">
         <v>-492935900</v>
@@ -12116,10 +12116,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>-456940000</v>
+        <v>-457768800</v>
       </c>
       <c r="B24" s="1">
-        <v>-69412380</v>
+        <v>-70580760</v>
       </c>
       <c r="C24" s="1">
         <v>-492382400</v>
@@ -12130,10 +12130,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>-454183400</v>
+        <v>-455031500</v>
       </c>
       <c r="B25" s="1">
-        <v>-67113230</v>
+        <v>-68323590</v>
       </c>
       <c r="C25" s="1">
         <v>-491840800</v>
@@ -12144,10 +12144,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>-451426800</v>
+        <v>-452291800</v>
       </c>
       <c r="B26" s="1">
-        <v>-64839430</v>
+        <v>-66090310</v>
       </c>
       <c r="C26" s="1">
         <v>-491311000</v>
@@ -12158,10 +12158,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>-448670200</v>
+        <v>-449549900</v>
       </c>
       <c r="B27" s="1">
-        <v>-62591720</v>
+        <v>-63881590</v>
       </c>
       <c r="C27" s="1">
         <v>-490791800</v>
@@ -12172,10 +12172,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>-445913400</v>
+        <v>-446805400</v>
       </c>
       <c r="B28" s="1">
-        <v>-60370770</v>
+        <v>-61698060</v>
       </c>
       <c r="C28" s="1">
         <v>-490283100</v>
@@ -12186,10 +12186,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>-443156400</v>
+        <v>-444058400</v>
       </c>
       <c r="B29" s="1">
-        <v>-58177250</v>
+        <v>-59540320</v>
       </c>
       <c r="C29" s="1">
         <v>-489784200</v>
@@ -12200,10 +12200,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>-440399100</v>
+        <v>-441308800</v>
       </c>
       <c r="B30" s="1">
-        <v>-56011750</v>
+        <v>-57408920</v>
       </c>
       <c r="C30" s="1">
         <v>-489293000</v>
@@ -12214,10 +12214,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>-437641600</v>
+        <v>-438556400</v>
       </c>
       <c r="B31" s="1">
-        <v>-53874840</v>
+        <v>-55304340</v>
       </c>
       <c r="C31" s="1">
         <v>-488809100</v>
@@ -12228,10 +12228,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>-434883700</v>
+        <v>-435801300</v>
       </c>
       <c r="B32" s="1">
-        <v>-51767020</v>
+        <v>-53227070</v>
       </c>
       <c r="C32" s="1">
         <v>-488332400</v>
@@ -12242,10 +12242,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>-432125300</v>
+        <v>-433043200</v>
       </c>
       <c r="B33" s="1">
-        <v>-49688770</v>
+        <v>-51177510</v>
       </c>
       <c r="C33" s="1">
         <v>-487862500</v>
@@ -12256,10 +12256,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>-429366400</v>
+        <v>-430282100</v>
       </c>
       <c r="B34" s="1">
-        <v>-47640510</v>
+        <v>-49156030</v>
       </c>
       <c r="C34" s="1">
         <v>-487399600</v>
@@ -12270,10 +12270,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>-426606900</v>
+        <v>-427518000</v>
       </c>
       <c r="B35" s="1">
-        <v>-45622620</v>
+        <v>-47162970</v>
       </c>
       <c r="C35" s="1">
         <v>-486943100</v>
@@ -12284,10 +12284,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>-423846700</v>
+        <v>-424750600</v>
       </c>
       <c r="B36" s="1">
-        <v>-43635420</v>
+        <v>-45198610</v>
       </c>
       <c r="C36" s="1">
         <v>-486493200</v>
@@ -12298,10 +12298,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>-421085700</v>
+        <v>-421980000</v>
       </c>
       <c r="B37" s="1">
-        <v>-41679220</v>
+        <v>-43263200</v>
       </c>
       <c r="C37" s="1">
         <v>-486049400</v>
@@ -12312,10 +12312,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>-418323800</v>
+        <v>-419206000</v>
       </c>
       <c r="B38" s="1">
-        <v>-39754260</v>
+        <v>-41356920</v>
       </c>
       <c r="C38" s="1">
         <v>-485611600</v>
@@ -12326,10 +12326,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>-415560900</v>
+        <v>-416428700</v>
       </c>
       <c r="B39" s="1">
-        <v>-37860720</v>
+        <v>-39479940</v>
       </c>
       <c r="C39" s="1">
         <v>-485179700</v>
@@ -12340,10 +12340,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>-412796900</v>
+        <v>-413647800</v>
       </c>
       <c r="B40" s="1">
-        <v>-35998760</v>
+        <v>-37632360</v>
       </c>
       <c r="C40" s="1">
         <v>-484753400</v>
@@ -12354,10 +12354,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>-410031700</v>
+        <v>-410863300</v>
       </c>
       <c r="B41" s="1">
-        <v>-34168500</v>
+        <v>-35814260</v>
       </c>
       <c r="C41" s="1">
         <v>-484332400</v>
@@ -12368,10 +12368,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>-407265200</v>
+        <v>-408075100</v>
       </c>
       <c r="B42" s="1">
-        <v>-32369990</v>
+        <v>-34025670</v>
       </c>
       <c r="C42" s="1">
         <v>-483501900</v>
@@ -12382,10 +12382,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>-404497300</v>
+        <v>-405283200</v>
       </c>
       <c r="B43" s="1">
-        <v>-30603270</v>
+        <v>-32266570</v>
       </c>
       <c r="C43" s="1">
         <v>-482692000</v>
@@ -12396,10 +12396,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>-401727700</v>
+        <v>-402487500</v>
       </c>
       <c r="B44" s="1">
-        <v>-28868310</v>
+        <v>-30536920</v>
       </c>
       <c r="C44" s="1">
         <v>-481901800</v>
@@ -12410,10 +12410,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>-398956500</v>
+        <v>-399687800</v>
       </c>
       <c r="B45" s="1">
-        <v>-27165050</v>
+        <v>-28836620</v>
       </c>
       <c r="C45" s="1">
         <v>-481130300</v>
@@ -12424,10 +12424,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>-396183500</v>
+        <v>-396884200</v>
       </c>
       <c r="B46" s="1">
-        <v>-25493400</v>
+        <v>-27165550</v>
       </c>
       <c r="C46" s="1">
         <v>-480376600</v>
@@ -12438,10 +12438,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>-393408500</v>
+        <v>-394076500</v>
       </c>
       <c r="B47" s="1">
-        <v>-23853210</v>
+        <v>-25523550</v>
       </c>
       <c r="C47" s="1">
         <v>-479637500</v>
@@ -12452,10 +12452,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>-390631400</v>
+        <v>-391264700</v>
       </c>
       <c r="B48" s="1">
-        <v>-22244320</v>
+        <v>-23910420</v>
       </c>
       <c r="C48" s="1">
         <v>-478912000</v>
@@ -12466,10 +12466,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>-387852100</v>
+        <v>-388448700</v>
       </c>
       <c r="B49" s="1">
-        <v>-20666510</v>
+        <v>-22325920</v>
       </c>
       <c r="C49" s="1">
         <v>-478199500</v>
@@ -12480,10 +12480,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>-385070300</v>
+        <v>-385628400</v>
       </c>
       <c r="B50" s="1">
-        <v>-19119520</v>
+        <v>-20769790</v>
       </c>
       <c r="C50" s="1">
         <v>-477499400</v>
@@ -12494,10 +12494,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>-382286100</v>
+        <v>-382803800</v>
       </c>
       <c r="B51" s="1">
-        <v>-17603090</v>
+        <v>-19241750</v>
       </c>
       <c r="C51" s="1">
         <v>-476811300</v>
@@ -12508,10 +12508,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>-379499100</v>
+        <v>-379974700</v>
       </c>
       <c r="B52" s="1">
-        <v>-16116890</v>
+        <v>-17741460</v>
       </c>
       <c r="C52" s="1">
         <v>-476135000</v>
@@ -12522,10 +12522,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>-376709400</v>
+        <v>-377141200</v>
       </c>
       <c r="B53" s="1">
-        <v>-14660580</v>
+        <v>-16268570</v>
       </c>
       <c r="C53" s="1">
         <v>-475470100</v>
@@ -12536,10 +12536,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>-373916600</v>
+        <v>-374303000</v>
       </c>
       <c r="B54" s="1">
-        <v>-13233790</v>
+        <v>-14822710</v>
       </c>
       <c r="C54" s="1">
         <v>-474815900</v>
@@ -12550,10 +12550,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>-371120700</v>
+        <v>-371460300</v>
       </c>
       <c r="B55" s="1">
-        <v>-11836110</v>
+        <v>-13403480</v>
       </c>
       <c r="C55" s="1">
         <v>-474172200</v>
@@ -12564,10 +12564,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>-368321500</v>
+        <v>-368612900</v>
       </c>
       <c r="B56" s="1">
-        <v>-10467120</v>
+        <v>-12010440</v>
       </c>
       <c r="C56" s="1">
         <v>-473538600</v>
@@ -12578,10 +12578,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>-365518800</v>
-      </c>
-      <c r="B57">
-        <v>-9126368</v>
+        <v>-365760700</v>
+      </c>
+      <c r="B57" s="1">
+        <v>-10643160</v>
       </c>
       <c r="C57" s="1">
         <v>-472914800</v>
@@ -12592,10 +12592,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>-362712500</v>
+        <v>-362903800</v>
       </c>
       <c r="B58">
-        <v>-7813372</v>
+        <v>-9301178</v>
       </c>
       <c r="C58" s="1">
         <v>-472300500</v>
@@ -12606,10 +12606,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>-359902500</v>
+        <v>-360042000</v>
       </c>
       <c r="B59">
-        <v>-6527639</v>
+        <v>-7984003</v>
       </c>
       <c r="C59" s="1">
         <v>-471695200</v>
@@ -12620,10 +12620,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>-357088400</v>
+        <v>-357175200</v>
       </c>
       <c r="B60">
-        <v>-5268655</v>
+        <v>-6691144</v>
       </c>
       <c r="C60" s="1">
         <v>-471099100</v>
@@ -12634,10 +12634,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>-354270300</v>
+        <v>-354303500</v>
       </c>
       <c r="B61">
-        <v>-4035886</v>
+        <v>-5422090</v>
       </c>
       <c r="C61" s="1">
         <v>-470511200</v>
@@ -12648,10 +12648,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>-351447900</v>
+        <v>-351426700</v>
       </c>
       <c r="B62">
-        <v>-2828786</v>
+        <v>-4176321</v>
       </c>
       <c r="C62" s="1">
         <v>-469930400</v>
@@ -12662,10 +12662,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>-348621100</v>
+        <v>-348544800</v>
       </c>
       <c r="B63">
-        <v>-1646792</v>
+        <v>-2953306</v>
       </c>
       <c r="C63" s="1">
         <v>-469356300</v>
@@ -12676,10 +12676,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>-345789700</v>
+        <v>-345657700</v>
       </c>
       <c r="B64">
-        <v>-489331.8</v>
+        <v>-1752506</v>
       </c>
       <c r="C64" s="1">
         <v>-468789000</v>
@@ -12690,10 +12690,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>-342953600</v>
+        <v>-342765500</v>
       </c>
       <c r="B65">
-        <v>644178</v>
+        <v>-573378.5</v>
       </c>
       <c r="C65" s="1">
         <v>-468228100</v>
@@ -12704,10 +12704,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>-340112500</v>
+        <v>-339868000</v>
       </c>
       <c r="B66">
-        <v>1754328</v>
+        <v>584625.80000000005</v>
       </c>
       <c r="C66" s="1">
         <v>-467673700</v>
@@ -12718,10 +12718,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>-337266400</v>
+        <v>-336965200</v>
       </c>
       <c r="B67">
-        <v>2841717</v>
+        <v>1722056</v>
       </c>
       <c r="C67" s="1">
         <v>-467125400</v>
@@ -12732,10 +12732,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>-334415100</v>
+        <v>-334057000</v>
       </c>
       <c r="B68">
-        <v>3906945</v>
+        <v>2839464</v>
       </c>
       <c r="C68" s="1">
         <v>-466583600</v>
@@ -12746,10 +12746,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>-331558400</v>
+        <v>-331143500</v>
       </c>
       <c r="B69">
-        <v>4950618</v>
+        <v>3937397</v>
       </c>
       <c r="C69" s="1">
         <v>-466047400</v>
@@ -12760,10 +12760,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>-328696100</v>
+        <v>-328224500</v>
       </c>
       <c r="B70">
-        <v>5973340</v>
+        <v>5016401</v>
       </c>
       <c r="C70" s="1">
         <v>-465517200</v>
@@ -12774,10 +12774,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>-325828200</v>
+        <v>-325300000</v>
       </c>
       <c r="B71">
-        <v>6975717</v>
+        <v>6077017</v>
       </c>
       <c r="C71" s="1">
         <v>-464992800</v>
@@ -12788,10 +12788,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>-322954500</v>
+        <v>-322370000</v>
       </c>
       <c r="B72">
-        <v>7958349</v>
+        <v>7119778</v>
       </c>
       <c r="C72" s="1">
         <v>-464473800</v>
@@ -12802,10 +12802,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>-320074800</v>
+        <v>-319434500</v>
       </c>
       <c r="B73">
-        <v>8921835</v>
+        <v>8145210</v>
       </c>
       <c r="C73" s="1">
         <v>-463960500</v>
@@ -12816,10 +12816,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>-317189000</v>
+        <v>-316493300</v>
       </c>
       <c r="B74">
-        <v>9866766</v>
+        <v>9153827</v>
       </c>
       <c r="C74" s="1">
         <v>-463452700</v>
@@ -12830,10 +12830,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>-314297000</v>
+        <v>-313546500</v>
       </c>
       <c r="B75" s="1">
-        <v>10793730</v>
+        <v>10146130</v>
       </c>
       <c r="C75" s="1">
         <v>-462949900</v>
@@ -12844,10 +12844,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>-311398500</v>
+        <v>-310594000</v>
       </c>
       <c r="B76" s="1">
-        <v>11703290</v>
+        <v>11122620</v>
       </c>
       <c r="C76" s="1">
         <v>-462452400</v>
@@ -12858,10 +12858,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>-308493600</v>
+        <v>-307635900</v>
       </c>
       <c r="B77" s="1">
-        <v>12596030</v>
+        <v>12083760</v>
       </c>
       <c r="C77" s="1">
         <v>-461960100</v>
@@ -12872,10 +12872,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>-305582000</v>
+        <v>-304671900</v>
       </c>
       <c r="B78" s="1">
-        <v>13472490</v>
+        <v>13030030</v>
       </c>
       <c r="C78" s="1">
         <v>-461472500</v>
@@ -12886,10 +12886,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>-302663700</v>
+        <v>-301702200</v>
       </c>
       <c r="B79" s="1">
-        <v>14333200</v>
+        <v>13961850</v>
       </c>
       <c r="C79" s="1">
         <v>-460990000</v>
@@ -12900,10 +12900,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>-299738600</v>
+        <v>-298726700</v>
       </c>
       <c r="B80" s="1">
-        <v>15178710</v>
+        <v>14879660</v>
       </c>
       <c r="C80" s="1">
         <v>-460512100</v>
@@ -12914,10 +12914,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>-296806400</v>
+        <v>-295745400</v>
       </c>
       <c r="B81" s="1">
-        <v>16009510</v>
+        <v>15783860</v>
       </c>
       <c r="C81" s="1">
         <v>-460038500</v>
@@ -12928,10 +12928,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>-293867200</v>
+        <v>-292758200</v>
       </c>
       <c r="B82" s="1">
-        <v>16826110</v>
+        <v>16674840</v>
       </c>
       <c r="C82" s="1">
         <v>-459568600</v>
@@ -12942,10 +12942,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>-290920700</v>
+        <v>-289765100</v>
       </c>
       <c r="B83" s="1">
-        <v>17628960</v>
+        <v>17552960</v>
       </c>
       <c r="C83" s="1">
         <v>-459102700</v>
@@ -12956,10 +12956,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>-287967000</v>
+        <v>-286766100</v>
       </c>
       <c r="B84" s="1">
-        <v>18418540</v>
+        <v>18418570</v>
       </c>
       <c r="C84" s="1">
         <v>-458640600</v>
@@ -12970,10 +12970,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>-285005900</v>
+        <v>-283761200</v>
       </c>
       <c r="B85" s="1">
-        <v>19195270</v>
+        <v>19271990</v>
       </c>
       <c r="C85" s="1">
         <v>-458182100</v>
@@ -12984,10 +12984,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>-282037300</v>
+        <v>-280750300</v>
       </c>
       <c r="B86" s="1">
-        <v>19959570</v>
+        <v>20113500</v>
       </c>
       <c r="C86" s="1">
         <v>-457727300</v>
@@ -12998,10 +12998,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>-279061200</v>
+        <v>-277733500</v>
       </c>
       <c r="B87" s="1">
-        <v>20711840</v>
+        <v>20943400</v>
       </c>
       <c r="C87" s="1">
         <v>-457276300</v>
@@ -13012,10 +13012,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>-276077400</v>
+        <v>-274710700</v>
       </c>
       <c r="B88" s="1">
-        <v>21452440</v>
+        <v>21761910</v>
       </c>
       <c r="C88" s="1">
         <v>-456828900</v>
@@ -13026,10 +13026,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>-273086000</v>
+        <v>-271681900</v>
       </c>
       <c r="B89" s="1">
-        <v>22181730</v>
+        <v>22569270</v>
       </c>
       <c r="C89" s="1">
         <v>-456384800</v>
@@ -13040,10 +13040,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>-270086800</v>
+        <v>-268647100</v>
       </c>
       <c r="B90" s="1">
-        <v>22900040</v>
+        <v>23365670</v>
       </c>
       <c r="C90" s="1">
         <v>-455503800</v>
@@ -13054,10 +13054,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>-267079700</v>
+        <v>-265606200</v>
       </c>
       <c r="B91" s="1">
-        <v>23607650</v>
+        <v>24151280</v>
       </c>
       <c r="C91" s="1">
         <v>-454636500</v>
@@ -13068,10 +13068,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>-264064800</v>
+        <v>-262559300</v>
       </c>
       <c r="B92" s="1">
-        <v>24304860</v>
+        <v>24926260</v>
       </c>
       <c r="C92" s="1">
         <v>-453782600</v>
@@ -13082,10 +13082,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>-261042000</v>
+        <v>-259506400</v>
       </c>
       <c r="B93" s="1">
-        <v>24991920</v>
+        <v>25690710</v>
       </c>
       <c r="C93" s="1">
         <v>-452941500</v>
@@ -13096,10 +13096,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>-258011200</v>
+        <v>-256447500</v>
       </c>
       <c r="B94" s="1">
-        <v>25669060</v>
+        <v>26444740</v>
       </c>
       <c r="C94" s="1">
         <v>-452112900</v>
@@ -13110,10 +13110,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>-254972400</v>
+        <v>-253382400</v>
       </c>
       <c r="B95" s="1">
-        <v>26336480</v>
+        <v>27188410</v>
       </c>
       <c r="C95" s="1">
         <v>-451296500</v>
@@ -13124,10 +13124,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>-251925500</v>
+        <v>-250311400</v>
       </c>
       <c r="B96" s="1">
-        <v>26994370</v>
+        <v>27921770</v>
       </c>
       <c r="C96" s="1">
         <v>-450491900</v>
@@ -13138,10 +13138,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>-248870600</v>
+        <v>-247234200</v>
       </c>
       <c r="B97" s="1">
-        <v>27642880</v>
+        <v>28644830</v>
       </c>
       <c r="C97" s="1">
         <v>-449699100</v>
@@ -13152,10 +13152,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>-245807600</v>
+        <v>-244151000</v>
       </c>
       <c r="B98" s="1">
-        <v>28282160</v>
+        <v>29357600</v>
       </c>
       <c r="C98" s="1">
         <v>-448917200</v>
@@ -13166,10 +13166,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>-242736500</v>
+        <v>-241061800</v>
       </c>
       <c r="B99" s="1">
-        <v>28912300</v>
+        <v>30060040</v>
       </c>
       <c r="C99" s="1">
         <v>-448144700</v>
@@ -13180,10 +13180,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>-239657300</v>
+        <v>-237966500</v>
       </c>
       <c r="B100" s="1">
-        <v>29533390</v>
+        <v>30752110</v>
       </c>
       <c r="C100" s="1">
         <v>-447381300</v>
@@ -13194,10 +13194,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>-236570000</v>
+        <v>-234865100</v>
       </c>
       <c r="B101" s="1">
-        <v>30145510</v>
+        <v>31433710</v>
       </c>
       <c r="C101" s="1">
         <v>-446626900</v>
@@ -13208,10 +13208,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>-233474600</v>
+        <v>-231757700</v>
       </c>
       <c r="B102" s="1">
-        <v>30748680</v>
+        <v>32104770</v>
       </c>
       <c r="C102" s="1">
         <v>-445881100</v>
@@ -13222,10 +13222,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>-230371100</v>
+        <v>-228644200</v>
       </c>
       <c r="B103" s="1">
-        <v>31342930</v>
+        <v>32765160</v>
       </c>
       <c r="C103" s="1">
         <v>-445143700</v>
@@ -13236,10 +13236,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <v>-227259500</v>
+        <v>-225524700</v>
       </c>
       <c r="B104" s="1">
-        <v>31928260</v>
+        <v>33414740</v>
       </c>
       <c r="C104" s="1">
         <v>-444415200</v>
@@ -13250,10 +13250,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>-224139900</v>
+        <v>-222399200</v>
       </c>
       <c r="B105" s="1">
-        <v>32504650</v>
+        <v>34053350</v>
       </c>
       <c r="C105" s="1">
         <v>-443694800</v>
@@ -13264,10 +13264,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>-221012200</v>
+        <v>-219267600</v>
       </c>
       <c r="B106" s="1">
-        <v>33072050</v>
+        <v>34680820</v>
       </c>
       <c r="C106" s="1">
         <v>-442982300</v>
@@ -13278,10 +13278,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <v>-217876500</v>
+        <v>-216130100</v>
       </c>
       <c r="B107" s="1">
-        <v>33630400</v>
+        <v>35296960</v>
       </c>
       <c r="C107" s="1">
         <v>-442277900</v>
@@ -13292,10 +13292,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <v>-214732900</v>
+        <v>-212986600</v>
       </c>
       <c r="B108" s="1">
-        <v>34179620</v>
+        <v>35901560</v>
       </c>
       <c r="C108" s="1">
         <v>-441581300</v>
@@ -13306,10 +13306,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <v>-211581300</v>
+        <v>-209837100</v>
       </c>
       <c r="B109" s="1">
-        <v>34719610</v>
+        <v>36494390</v>
       </c>
       <c r="C109" s="1">
         <v>-440892300</v>
@@ -13320,10 +13320,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <v>-208421800</v>
+        <v>-206681600</v>
       </c>
       <c r="B110" s="1">
-        <v>35250260</v>
+        <v>37075210</v>
       </c>
       <c r="C110" s="1">
         <v>-440210800</v>
@@ -13334,10 +13334,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <v>-205254400</v>
+        <v>-203520300</v>
       </c>
       <c r="B111" s="1">
-        <v>35771440</v>
+        <v>37643780</v>
       </c>
       <c r="C111" s="1">
         <v>-439537000</v>
@@ -13348,10 +13348,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
-        <v>-202079300</v>
+        <v>-200353000</v>
       </c>
       <c r="B112" s="1">
-        <v>36283020</v>
+        <v>38199840</v>
       </c>
       <c r="C112" s="1">
         <v>-438870200</v>
@@ -13362,10 +13362,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <v>-198896400</v>
+        <v>-197179800</v>
       </c>
       <c r="B113" s="1">
-        <v>36784820</v>
+        <v>38743110</v>
       </c>
       <c r="C113" s="1">
         <v>-438210500</v>
@@ -13376,10 +13376,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
-        <v>-195705800</v>
+        <v>-194000800</v>
       </c>
       <c r="B114" s="1">
-        <v>37276700</v>
+        <v>39273310</v>
       </c>
       <c r="C114" s="1">
         <v>-437557700</v>
@@ -13390,10 +13390,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
-        <v>-192507700</v>
+        <v>-190816000</v>
       </c>
       <c r="B115" s="1">
-        <v>37758460</v>
+        <v>39790170</v>
       </c>
       <c r="C115" s="1">
         <v>-436911000</v>
@@ -13404,10 +13404,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
-        <v>-189301900</v>
+        <v>-187625300</v>
       </c>
       <c r="B116" s="1">
-        <v>38229910</v>
+        <v>40293380</v>
       </c>
       <c r="C116" s="1">
         <v>-436269800</v>
@@ -13418,10 +13418,10 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
-        <v>-186088700</v>
+        <v>-184428800</v>
       </c>
       <c r="B117" s="1">
-        <v>38690870</v>
+        <v>40782660</v>
       </c>
       <c r="C117" s="1">
         <v>-435634300</v>
@@ -13432,10 +13432,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
-        <v>-182868100</v>
+        <v>-181226600</v>
       </c>
       <c r="B118" s="1">
-        <v>39141120</v>
+        <v>41257700</v>
       </c>
       <c r="C118" s="1">
         <v>-435004400</v>
@@ -13446,10 +13446,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
-        <v>-179640100</v>
+        <v>-178018700</v>
       </c>
       <c r="B119" s="1">
-        <v>39580460</v>
+        <v>41718200</v>
       </c>
       <c r="C119" s="1">
         <v>-434379900</v>
@@ -13460,10 +13460,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
-        <v>-176404900</v>
+        <v>-174805000</v>
       </c>
       <c r="B120" s="1">
-        <v>40008660</v>
+        <v>42163870</v>
       </c>
       <c r="C120" s="1">
         <v>-433760800</v>
@@ -13474,10 +13474,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
-        <v>-173162500</v>
+        <v>-171585700</v>
       </c>
       <c r="B121" s="1">
-        <v>40425520</v>
+        <v>42594400</v>
       </c>
       <c r="C121" s="1">
         <v>-433147200</v>
@@ -13488,10 +13488,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
-        <v>-169913100</v>
+        <v>-168360800</v>
       </c>
       <c r="B122" s="1">
-        <v>40830800</v>
+        <v>43009510</v>
       </c>
       <c r="C122" s="1">
         <v>-432538700</v>
@@ -13502,10 +13502,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
-        <v>-166656600</v>
+        <v>-165130300</v>
       </c>
       <c r="B123" s="1">
-        <v>41224290</v>
+        <v>43408900</v>
       </c>
       <c r="C123" s="1">
         <v>-431935400</v>
@@ -13516,10 +13516,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
-        <v>-163393200</v>
+        <v>-161894300</v>
       </c>
       <c r="B124" s="1">
-        <v>41605760</v>
+        <v>43792280</v>
       </c>
       <c r="C124" s="1">
         <v>-431337300</v>
@@ -13530,10 +13530,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
-        <v>-160123000</v>
+        <v>-158652700</v>
       </c>
       <c r="B125" s="1">
-        <v>41974990</v>
+        <v>44159390</v>
       </c>
       <c r="C125" s="1">
         <v>-430744200</v>
@@ -13544,10 +13544,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
-        <v>-156846000</v>
+        <v>-155405700</v>
       </c>
       <c r="B126" s="1">
-        <v>42331760</v>
+        <v>44509940</v>
       </c>
       <c r="C126" s="1">
         <v>-430156300</v>
@@ -13558,10 +13558,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
-        <v>-153562500</v>
+        <v>-152153200</v>
       </c>
       <c r="B127" s="1">
-        <v>42675850</v>
+        <v>44843680</v>
       </c>
       <c r="C127" s="1">
         <v>-429573100</v>
@@ -13572,10 +13572,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
-        <v>-150272300</v>
+        <v>-148895400</v>
       </c>
       <c r="B128" s="1">
-        <v>43007050</v>
+        <v>45160360</v>
       </c>
       <c r="C128" s="1">
         <v>-428994800</v>
@@ -13586,10 +13586,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
-        <v>-146975800</v>
+        <v>-145632200</v>
       </c>
       <c r="B129" s="1">
-        <v>43325150</v>
+        <v>45459740</v>
       </c>
       <c r="C129" s="1">
         <v>-428421400</v>
@@ -13600,10 +13600,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
-        <v>-143672800</v>
+        <v>-142363700</v>
       </c>
       <c r="B130" s="1">
-        <v>43629960</v>
+        <v>45741590</v>
       </c>
       <c r="C130" s="1">
         <v>-427852500</v>
@@ -13614,10 +13614,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
-        <v>-140363700</v>
+        <v>-139089900</v>
       </c>
       <c r="B131" s="1">
-        <v>43921260</v>
+        <v>46005720</v>
       </c>
       <c r="C131" s="1">
         <v>-427288400</v>
@@ -13628,10 +13628,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
-        <v>-137048400</v>
+        <v>-135811000</v>
       </c>
       <c r="B132" s="1">
-        <v>44198900</v>
+        <v>46251920</v>
       </c>
       <c r="C132" s="1">
         <v>-426728800</v>
@@ -13642,10 +13642,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
-        <v>-133727000</v>
+        <v>-132526900</v>
       </c>
       <c r="B133" s="1">
-        <v>44462680</v>
+        <v>46480010</v>
       </c>
       <c r="C133" s="1">
         <v>-426173800</v>
@@ -13656,10 +13656,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
-        <v>-130399600</v>
+        <v>-129237700</v>
       </c>
       <c r="B134" s="1">
-        <v>44712440</v>
+        <v>46689840</v>
       </c>
       <c r="C134" s="1">
         <v>-425623300</v>
@@ -13670,10 +13670,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
-        <v>-127066400</v>
+        <v>-125943400</v>
       </c>
       <c r="B135" s="1">
-        <v>44948030</v>
+        <v>46881250</v>
       </c>
       <c r="C135" s="1">
         <v>-425077100</v>
@@ -13684,10 +13684,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
-        <v>-123727500</v>
+        <v>-122644100</v>
       </c>
       <c r="B136" s="1">
-        <v>45169310</v>
+        <v>47054140</v>
       </c>
       <c r="C136" s="1">
         <v>-424534400</v>
@@ -13698,10 +13698,10 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
-        <v>-120382900</v>
+        <v>-119339900</v>
       </c>
       <c r="B137" s="1">
-        <v>45376140</v>
+        <v>47208380</v>
       </c>
       <c r="C137" s="1">
         <v>-423995200</v>
@@ -13712,10 +13712,10 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
-        <v>-117032700</v>
+        <v>-116030800</v>
       </c>
       <c r="B138" s="1">
-        <v>45568400</v>
+        <v>47343900</v>
       </c>
       <c r="C138" s="1">
         <v>-423459900</v>
@@ -13726,10 +13726,10 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
-        <v>-113677100</v>
+        <v>-112716800</v>
       </c>
       <c r="B139" s="1">
-        <v>45746000</v>
+        <v>47460630</v>
       </c>
       <c r="C139" s="1">
         <v>-422928000</v>
@@ -13740,10 +13740,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
-        <v>-110316100</v>
+        <v>-109398100</v>
       </c>
       <c r="B140" s="1">
-        <v>45908850</v>
+        <v>47558530</v>
       </c>
       <c r="C140" s="1">
         <v>-422399700</v>
@@ -13754,10 +13754,10 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
-        <v>-106949900</v>
+        <v>-106074600</v>
       </c>
       <c r="B141" s="1">
-        <v>46056860</v>
+        <v>47637570</v>
       </c>
       <c r="C141" s="1">
         <v>-421875000</v>
@@ -13768,10 +13768,10 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
-        <v>-103578500</v>
+        <v>-102746500</v>
       </c>
       <c r="B142" s="1">
-        <v>46189990</v>
+        <v>47697760</v>
       </c>
       <c r="C142" s="1">
         <v>-421353500</v>
@@ -13782,10 +13782,10 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
-        <v>-100202000</v>
+        <v>-99413770</v>
       </c>
       <c r="B143" s="1">
-        <v>46308180</v>
+        <v>47739120</v>
       </c>
       <c r="C143" s="1">
         <v>-420835700</v>
@@ -13796,10 +13796,10 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
-        <v>-96820550</v>
+        <v>-96076470</v>
       </c>
       <c r="B144" s="1">
-        <v>46411400</v>
+        <v>47761700</v>
       </c>
       <c r="C144" s="1">
         <v>-420321200</v>
@@ -13810,10 +13810,10 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
-        <v>-93434240</v>
+        <v>-92734690</v>
       </c>
       <c r="B145" s="1">
-        <v>46499650</v>
+        <v>47765560</v>
       </c>
       <c r="C145" s="1">
         <v>-419810100</v>
@@ -13824,10 +13824,10 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
-        <v>-90043150</v>
+        <v>-89388480</v>
       </c>
       <c r="B146" s="1">
-        <v>46572920</v>
+        <v>47750780</v>
       </c>
       <c r="C146" s="1">
         <v>-419302500</v>
@@ -13838,10 +13838,10 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
-        <v>-86647380</v>
+        <v>-86037900</v>
       </c>
       <c r="B147" s="1">
-        <v>46631230</v>
+        <v>47717490</v>
       </c>
       <c r="C147" s="1">
         <v>-418798000</v>
@@ -13852,10 +13852,10 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
-        <v>-83247010</v>
+        <v>-82683030</v>
       </c>
       <c r="B148" s="1">
-        <v>46674620</v>
+        <v>47665820</v>
       </c>
       <c r="C148" s="1">
         <v>-418296800</v>
@@ -13866,10 +13866,10 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
-        <v>-79842140</v>
+        <v>-79323920</v>
       </c>
       <c r="B149" s="1">
-        <v>46703140</v>
+        <v>47595920</v>
       </c>
       <c r="C149" s="1">
         <v>-417798900</v>
@@ -13880,10 +13880,10 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
-        <v>-76432870</v>
+        <v>-75960640</v>
       </c>
       <c r="B150" s="1">
-        <v>46716860</v>
+        <v>47507970</v>
       </c>
       <c r="C150" s="1">
         <v>-417304100</v>
@@ -13894,10 +13894,10 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
-        <v>-73019290</v>
+        <v>-72593260</v>
       </c>
       <c r="B151" s="1">
-        <v>46715840</v>
+        <v>47402170</v>
       </c>
       <c r="C151" s="1">
         <v>-416812500</v>
@@ -13908,10 +13908,10 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
-        <v>-69601480</v>
+        <v>-69221830</v>
       </c>
       <c r="B152" s="1">
-        <v>46700200</v>
+        <v>47278740</v>
       </c>
       <c r="C152" s="1">
         <v>-416324300</v>
@@ -13922,10 +13922,10 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
-        <v>-66179530</v>
+        <v>-65846440</v>
       </c>
       <c r="B153" s="1">
-        <v>46670040</v>
+        <v>47137910</v>
       </c>
       <c r="C153" s="1">
         <v>-415839200</v>
@@ -13936,10 +13936,10 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
-        <v>-62753540</v>
+        <v>-62467140</v>
       </c>
       <c r="B154" s="1">
-        <v>46625480</v>
+        <v>46979960</v>
       </c>
       <c r="C154" s="1">
         <v>-415357200</v>
@@ -13950,10 +13950,10 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
-        <v>-59323580</v>
+        <v>-59084020</v>
       </c>
       <c r="B155" s="1">
-        <v>46566680</v>
+        <v>46805150</v>
       </c>
       <c r="C155" s="1">
         <v>-414878100</v>
@@ -13964,10 +13964,10 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
-        <v>-55889740</v>
+        <v>-55697120</v>
       </c>
       <c r="B156" s="1">
-        <v>46493780</v>
+        <v>46613780</v>
       </c>
       <c r="C156" s="1">
         <v>-414402300</v>
@@ -13978,10 +13978,10 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
-        <v>-52452110</v>
+        <v>-52306540</v>
       </c>
       <c r="B157" s="1">
-        <v>46406940</v>
+        <v>46406180</v>
       </c>
       <c r="C157" s="1">
         <v>-413456500</v>
@@ -13992,10 +13992,10 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
-        <v>-49010780</v>
+        <v>-48912320</v>
       </c>
       <c r="B158" s="1">
-        <v>46306350</v>
+        <v>46182660</v>
       </c>
       <c r="C158" s="1">
         <v>-412522800</v>
@@ -14006,10 +14006,10 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
-        <v>-45565820</v>
+        <v>-45514560</v>
       </c>
       <c r="B159" s="1">
-        <v>46192200</v>
+        <v>45943570</v>
       </c>
       <c r="C159" s="1">
         <v>-411599800</v>
@@ -14020,10 +14020,10 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
-        <v>-42117320</v>
+        <v>-42113320</v>
       </c>
       <c r="B160" s="1">
-        <v>46064700</v>
+        <v>45689280</v>
       </c>
       <c r="C160" s="1">
         <v>-410686700</v>
@@ -14034,10 +14034,10 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
-        <v>-38665360</v>
+        <v>-38708660</v>
       </c>
       <c r="B161" s="1">
-        <v>45924040</v>
+        <v>45420170</v>
       </c>
       <c r="C161" s="1">
         <v>-409783100</v>
@@ -14048,10 +14048,10 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
-        <v>-35210030</v>
+        <v>-35300680</v>
       </c>
       <c r="B162" s="1">
-        <v>45770460</v>
+        <v>45136610</v>
       </c>
       <c r="C162" s="1">
         <v>-408888800</v>
@@ -14062,10 +14062,10 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
-        <v>-31751400</v>
+        <v>-31889430</v>
       </c>
       <c r="B163" s="1">
-        <v>45604180</v>
+        <v>44839020</v>
       </c>
       <c r="C163" s="1">
         <v>-408003800</v>
@@ -14076,10 +14076,10 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
-        <v>-28289560</v>
+        <v>-28474990</v>
       </c>
       <c r="B164" s="1">
-        <v>45425450</v>
+        <v>44527790</v>
       </c>
       <c r="C164" s="1">
         <v>-407127900</v>
@@ -14090,10 +14090,10 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
-        <v>-24824580</v>
+        <v>-25057440</v>
       </c>
       <c r="B165" s="1">
-        <v>45234510</v>
+        <v>44203340</v>
       </c>
       <c r="C165" s="1">
         <v>-406261200</v>
@@ -14104,10 +14104,10 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
-        <v>-21356560</v>
+        <v>-21636850</v>
       </c>
       <c r="B166" s="1">
-        <v>45031610</v>
+        <v>43866110</v>
       </c>
       <c r="C166" s="1">
         <v>-405403100</v>
@@ -14118,10 +14118,10 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
-        <v>-17885560</v>
+        <v>-18213290</v>
       </c>
       <c r="B167" s="1">
-        <v>44817000</v>
+        <v>43516530</v>
       </c>
       <c r="C167" s="1">
         <v>-404554000</v>
@@ -14132,10 +14132,10 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
-        <v>-14411660</v>
+        <v>-14786840</v>
       </c>
       <c r="B168" s="1">
-        <v>44590960</v>
+        <v>43155030</v>
       </c>
       <c r="C168" s="1">
         <v>-403713400</v>
@@ -14146,10 +14146,10 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
-        <v>-10934960</v>
+        <v>-11357580</v>
       </c>
       <c r="B169" s="1">
-        <v>44353740</v>
+        <v>42782060</v>
       </c>
       <c r="C169" s="1">
         <v>-402881400</v>
@@ -14160,10 +14160,10 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>-7455524</v>
+        <v>-7925582</v>
       </c>
       <c r="B170" s="1">
-        <v>44105610</v>
+        <v>42398060</v>
       </c>
       <c r="C170" s="1">
         <v>-402057700</v>
@@ -14174,10 +14174,10 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>-3973437</v>
+        <v>-4490919</v>
       </c>
       <c r="B171" s="1">
-        <v>43846840</v>
+        <v>42003480</v>
       </c>
       <c r="C171" s="1">
         <v>-401242500</v>
@@ -14188,10 +14188,10 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>-488778.3</v>
+        <v>-1053670</v>
       </c>
       <c r="B172" s="1">
-        <v>43577710</v>
+        <v>41598760</v>
       </c>
       <c r="C172" s="1">
         <v>-400435200</v>
@@ -14202,10 +14202,10 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>2998370</v>
+        <v>2386090</v>
       </c>
       <c r="B173" s="1">
-        <v>43298470</v>
+        <v>41184370</v>
       </c>
       <c r="C173" s="1">
         <v>-399636200</v>
@@ -14216,10 +14216,10 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>6487926</v>
+        <v>5828283</v>
       </c>
       <c r="B174" s="1">
-        <v>43009390</v>
+        <v>40760730</v>
       </c>
       <c r="C174" s="1">
         <v>-398845100</v>
@@ -14230,10 +14230,10 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>9979808</v>
+        <v>9272833</v>
       </c>
       <c r="B175" s="1">
-        <v>42710740</v>
+        <v>40328300</v>
       </c>
       <c r="C175" s="1">
         <v>-398061000</v>
@@ -14244,10 +14244,10 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
-        <v>13473930</v>
+        <v>12719660</v>
       </c>
       <c r="B176" s="1">
-        <v>42402790</v>
+        <v>39887500</v>
       </c>
       <c r="C176" s="1">
         <v>-397283500</v>
@@ -14258,10 +14258,10 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
-        <v>16970220</v>
+        <v>16168700</v>
       </c>
       <c r="B177" s="1">
-        <v>42085780</v>
+        <v>39438760</v>
       </c>
       <c r="C177" s="1">
         <v>-396512100</v>
@@ -14272,10 +14272,10 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
-        <v>20468580</v>
+        <v>19619860</v>
       </c>
       <c r="B178" s="1">
-        <v>41759970</v>
+        <v>38982510</v>
       </c>
       <c r="C178" s="1">
         <v>-395747200</v>
@@ -14286,10 +14286,10 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
-        <v>23968930</v>
+        <v>23073060</v>
       </c>
       <c r="B179" s="1">
-        <v>41425610</v>
+        <v>38519170</v>
       </c>
       <c r="C179" s="1">
         <v>-394988600</v>
@@ -14300,10 +14300,10 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
-        <v>27471180</v>
+        <v>26528240</v>
       </c>
       <c r="B180" s="1">
-        <v>41082930</v>
+        <v>38049130</v>
       </c>
       <c r="C180" s="1">
         <v>-394236000</v>
@@ -14314,10 +14314,10 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
-        <v>30975250</v>
+        <v>29985320</v>
       </c>
       <c r="B181" s="1">
-        <v>40732160</v>
+        <v>37572800</v>
       </c>
       <c r="C181" s="1">
         <v>-393489700</v>
@@ -14328,10 +14328,10 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
-        <v>34481060</v>
+        <v>33444210</v>
       </c>
       <c r="B182" s="1">
-        <v>40373540</v>
+        <v>37090540</v>
       </c>
       <c r="C182" s="1">
         <v>-392749300</v>
@@ -14342,10 +14342,10 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
-        <v>37988500</v>
+        <v>36904850</v>
       </c>
       <c r="B183" s="1">
-        <v>40007270</v>
+        <v>36602740</v>
       </c>
       <c r="C183" s="1">
         <v>-392014900</v>
@@ -14356,10 +14356,10 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
-        <v>41497480</v>
+        <v>40367150</v>
       </c>
       <c r="B184" s="1">
-        <v>39633550</v>
+        <v>36109750</v>
       </c>
       <c r="C184" s="1">
         <v>-391286300</v>
@@ -14370,10 +14370,10 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
-        <v>45007930</v>
+        <v>43831040</v>
       </c>
       <c r="B185" s="1">
-        <v>39252580</v>
+        <v>35611910</v>
       </c>
       <c r="C185" s="1">
         <v>-390563600</v>
@@ -14384,10 +14384,10 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
-        <v>48519740</v>
+        <v>47296430</v>
       </c>
       <c r="B186" s="1">
-        <v>38864540</v>
+        <v>35109540</v>
       </c>
       <c r="C186" s="1">
         <v>-389846800</v>
@@ -14398,10 +14398,10 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
-        <v>52032820</v>
+        <v>50763260</v>
       </c>
       <c r="B187" s="1">
-        <v>38469600</v>
+        <v>34602960</v>
       </c>
       <c r="C187" s="1">
         <v>-389135600</v>
@@ -14412,10 +14412,10 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
-        <v>55547070</v>
+        <v>54231460</v>
       </c>
       <c r="B188" s="1">
-        <v>38067920</v>
+        <v>34092450</v>
       </c>
       <c r="C188" s="1">
         <v>-388430100</v>
@@ -14426,10 +14426,10 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
-        <v>59062400</v>
+        <v>57700930</v>
       </c>
       <c r="B189" s="1">
-        <v>37659640</v>
+        <v>33578290</v>
       </c>
       <c r="C189" s="1">
         <v>-387730300</v>
@@ -14440,10 +14440,10 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
-        <v>62578700</v>
+        <v>61171610</v>
       </c>
       <c r="B190" s="1">
-        <v>37244900</v>
+        <v>33060740</v>
       </c>
       <c r="C190" s="1">
         <v>-387036100</v>
@@ -14454,10 +14454,10 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
-        <v>66095890</v>
+        <v>64643420</v>
       </c>
       <c r="B191" s="1">
-        <v>36823820</v>
+        <v>32540020</v>
       </c>
       <c r="C191" s="1">
         <v>-386347300</v>
@@ -14468,10 +14468,10 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
-        <v>69613850</v>
+        <v>68116290</v>
       </c>
       <c r="B192" s="1">
-        <v>36396490</v>
+        <v>32016370</v>
       </c>
       <c r="C192" s="1">
         <v>-385664000</v>
@@ -14482,10 +14482,10 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
-        <v>73132480</v>
+        <v>71590140</v>
       </c>
       <c r="B193" s="1">
-        <v>35963020</v>
+        <v>31489970</v>
       </c>
       <c r="C193" s="1">
         <v>-384986100</v>
@@ -14496,10 +14496,10 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
-        <v>76651680</v>
+        <v>75064900</v>
       </c>
       <c r="B194" s="1">
-        <v>35523480</v>
+        <v>30961010</v>
       </c>
       <c r="C194" s="1">
         <v>-384313800</v>
@@ -14510,10 +14510,10 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
-        <v>80171340</v>
+        <v>78540490</v>
       </c>
       <c r="B195" s="1">
-        <v>35077930</v>
+        <v>30429630</v>
       </c>
       <c r="C195" s="1">
         <v>-383645600</v>
@@ -14524,10 +14524,10 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
-        <v>83691370</v>
+        <v>82016840</v>
       </c>
       <c r="B196" s="1">
-        <v>34626420</v>
+        <v>29895980</v>
       </c>
       <c r="C196" s="1">
         <v>-382982100</v>
@@ -14538,10 +14538,10 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
-        <v>87211640</v>
+        <v>85493880</v>
       </c>
       <c r="B197" s="1">
-        <v>34169000</v>
+        <v>29360180</v>
       </c>
       <c r="C197" s="1">
         <v>-382322900</v>
@@ -14552,10 +14552,10 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
-        <v>90732060</v>
+        <v>88971530</v>
       </c>
       <c r="B198" s="1">
-        <v>33705670</v>
+        <v>28822310</v>
       </c>
       <c r="C198" s="1">
         <v>-381667500</v>
@@ -14566,10 +14566,10 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
-        <v>94252500</v>
+        <v>92449720</v>
       </c>
       <c r="B199" s="1">
-        <v>33236450</v>
+        <v>28282460</v>
       </c>
       <c r="C199" s="1">
         <v>-381016600</v>
@@ -14580,10 +14580,10 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
-        <v>97772860</v>
+        <v>95928380</v>
       </c>
       <c r="B200" s="1">
-        <v>32761330</v>
+        <v>27740670</v>
       </c>
       <c r="C200" s="1">
         <v>-380369900</v>
@@ -14594,10 +14594,10 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
-        <v>101293000</v>
+        <v>99407440</v>
       </c>
       <c r="B201" s="1">
-        <v>32280290</v>
+        <v>27196990</v>
       </c>
       <c r="C201" s="1">
         <v>-379727400</v>
@@ -14608,10 +14608,10 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
-        <v>104812900</v>
+        <v>102886800</v>
       </c>
       <c r="B202" s="1">
-        <v>31793300</v>
+        <v>26651430</v>
       </c>
       <c r="C202" s="1">
         <v>-379089000</v>
@@ -14622,10 +14622,10 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
-        <v>108332300</v>
+        <v>106366500</v>
       </c>
       <c r="B203" s="1">
-        <v>31300320</v>
+        <v>26103980</v>
       </c>
       <c r="C203" s="1">
         <v>-378454600</v>
@@ -14636,10 +14636,10 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
-        <v>111851200</v>
+        <v>109846300</v>
       </c>
       <c r="B204" s="1">
-        <v>30801290</v>
+        <v>25554620</v>
       </c>
       <c r="C204" s="1">
         <v>-377824200</v>
@@ -14650,10 +14650,10 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
-        <v>115369500</v>
+        <v>113326200</v>
       </c>
       <c r="B205" s="1">
-        <v>30296150</v>
+        <v>25003310</v>
       </c>
       <c r="C205" s="1">
         <v>-377198000</v>
@@ -14664,10 +14664,10 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
-        <v>118886900</v>
+        <v>116806200</v>
       </c>
       <c r="B206" s="1">
-        <v>29784810</v>
+        <v>24449980</v>
       </c>
       <c r="C206" s="1">
         <v>-376575700</v>
@@ -14678,10 +14678,10 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
-        <v>122403500</v>
+        <v>120286200</v>
       </c>
       <c r="B207" s="1">
-        <v>29267190</v>
+        <v>23894580</v>
       </c>
       <c r="C207" s="1">
         <v>-375957600</v>
@@ -14692,10 +14692,10 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
-        <v>125919100</v>
+        <v>123766100</v>
       </c>
       <c r="B208" s="1">
-        <v>28743200</v>
+        <v>23336990</v>
       </c>
       <c r="C208" s="1">
         <v>-375343200</v>
@@ -14706,10 +14706,10 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
-        <v>129433600</v>
+        <v>127245900</v>
       </c>
       <c r="B209" s="1">
-        <v>28212720</v>
+        <v>22777120</v>
       </c>
       <c r="C209" s="1">
         <v>-374732900</v>
@@ -14720,10 +14720,10 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
-        <v>132946800</v>
+        <v>130725400</v>
       </c>
       <c r="B210" s="1">
-        <v>27675650</v>
+        <v>22214830</v>
       </c>
       <c r="C210" s="1">
         <v>-374126200</v>
@@ -14734,10 +14734,10 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
-        <v>136458700</v>
+        <v>134204600</v>
       </c>
       <c r="B211" s="1">
-        <v>27131860</v>
+        <v>21650010</v>
       </c>
       <c r="C211" s="1">
         <v>-373523400</v>
@@ -14748,10 +14748,10 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
-        <v>139969200</v>
+        <v>137683500</v>
       </c>
       <c r="B212" s="1">
-        <v>26581240</v>
+        <v>21082490</v>
       </c>
       <c r="C212" s="1">
         <v>-372924600</v>
@@ -14762,10 +14762,10 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
-        <v>143478000</v>
+        <v>141162000</v>
       </c>
       <c r="B213" s="1">
-        <v>26023640</v>
+        <v>20512120</v>
       </c>
       <c r="C213" s="1">
         <v>-372329500</v>
@@ -14776,10 +14776,10 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
-        <v>146985200</v>
+        <v>144640000</v>
       </c>
       <c r="B214" s="1">
-        <v>25458950</v>
+        <v>19938720</v>
       </c>
       <c r="C214" s="1">
         <v>-371738200</v>
@@ -14790,10 +14790,10 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
-        <v>150490500</v>
+        <v>148117500</v>
       </c>
       <c r="B215" s="1">
-        <v>24887010</v>
+        <v>19362130</v>
       </c>
       <c r="C215" s="1">
         <v>-371150800</v>
@@ -14804,10 +14804,10 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
-        <v>153993900</v>
+        <v>151594400</v>
       </c>
       <c r="B216" s="1">
-        <v>24307700</v>
+        <v>18782150</v>
       </c>
       <c r="C216" s="1">
         <v>-370567000</v>
@@ -14818,10 +14818,10 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
-        <v>157495300</v>
+        <v>155070700</v>
       </c>
       <c r="B217" s="1">
-        <v>23720880</v>
+        <v>18198580</v>
       </c>
       <c r="C217" s="1">
         <v>-369986600</v>
@@ -14832,10 +14832,10 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
-        <v>160994500</v>
+        <v>158546200</v>
       </c>
       <c r="B218" s="1">
-        <v>23126410</v>
+        <v>17611240</v>
       </c>
       <c r="C218" s="1">
         <v>-369410100</v>
@@ -14846,10 +14846,10 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
-        <v>164491500</v>
+        <v>162020900</v>
       </c>
       <c r="B219" s="1">
-        <v>22524150</v>
+        <v>17019920</v>
       </c>
       <c r="C219" s="1">
         <v>-368836900</v>
@@ -14860,10 +14860,10 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
-        <v>167986100</v>
+        <v>165494900</v>
       </c>
       <c r="B220" s="1">
-        <v>21913970</v>
+        <v>16424410</v>
       </c>
       <c r="C220" s="1">
         <v>-368266700</v>
@@ -14874,10 +14874,10 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
-        <v>171478300</v>
+        <v>168967900</v>
       </c>
       <c r="B221" s="1">
-        <v>21295750</v>
+        <v>15824510</v>
       </c>
       <c r="C221" s="1">
         <v>-367699400</v>
@@ -14888,10 +14888,10 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
-        <v>174967900</v>
+        <v>172440000</v>
       </c>
       <c r="B222" s="1">
-        <v>20669350</v>
+        <v>15220000</v>
       </c>
       <c r="C222" s="1">
         <v>-367135100</v>
@@ -14902,10 +14902,10 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
-        <v>178454800</v>
+        <v>175911100</v>
       </c>
       <c r="B223" s="1">
-        <v>20034680</v>
+        <v>14610700</v>
       </c>
       <c r="C223" s="1">
         <v>-366573700</v>
@@ -14916,10 +14916,10 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
-        <v>181939000</v>
+        <v>179381200</v>
       </c>
       <c r="B224" s="1">
-        <v>19391600</v>
+        <v>13996380</v>
       </c>
       <c r="C224" s="1">
         <v>-366015200</v>
@@ -14930,10 +14930,10 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
-        <v>185420300</v>
+        <v>182850100</v>
       </c>
       <c r="B225" s="1">
-        <v>18740040</v>
+        <v>13376870</v>
       </c>
       <c r="C225" s="1">
         <v>-365459600</v>
@@ -14944,10 +14944,10 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
-        <v>188898700</v>
+        <v>186317900</v>
       </c>
       <c r="B226" s="1">
-        <v>18079890</v>
+        <v>12751950</v>
       </c>
       <c r="C226" s="1">
         <v>-364906700</v>
@@ -14958,10 +14958,10 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
-        <v>192374000</v>
+        <v>189784500</v>
       </c>
       <c r="B227" s="1">
-        <v>17411090</v>
+        <v>12121460</v>
       </c>
       <c r="C227" s="1">
         <v>-364356700</v>
@@ -14972,10 +14972,10 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
-        <v>195846200</v>
+        <v>193249900</v>
       </c>
       <c r="B228" s="1">
-        <v>16733560</v>
+        <v>11485220</v>
       </c>
       <c r="C228" s="1">
         <v>-363809300</v>
@@ -14986,10 +14986,10 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
-        <v>199315200</v>
+        <v>196713900</v>
       </c>
       <c r="B229" s="1">
-        <v>16047260</v>
+        <v>10843050</v>
       </c>
       <c r="C229" s="1">
         <v>-363265000</v>
@@ -15000,10 +15000,10 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
-        <v>202780900</v>
+        <v>200176600</v>
       </c>
       <c r="B230" s="1">
-        <v>15352140</v>
+        <v>10194810</v>
       </c>
       <c r="C230" s="1">
         <v>-362723200</v>
@@ -15014,10 +15014,10 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
-        <v>206243300</v>
-      </c>
-      <c r="B231" s="1">
-        <v>14648190</v>
+        <v>203638000</v>
+      </c>
+      <c r="B231">
+        <v>9540346</v>
       </c>
       <c r="C231" s="1">
         <v>-362184400</v>
@@ -15028,10 +15028,10 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
-        <v>209702200</v>
-      </c>
-      <c r="B232" s="1">
-        <v>13935410</v>
+        <v>207097800</v>
+      </c>
+      <c r="B232">
+        <v>8879542</v>
       </c>
       <c r="C232" s="1">
         <v>-361648100</v>
@@ -15042,10 +15042,10 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
-        <v>213157700</v>
-      </c>
-      <c r="B233" s="1">
-        <v>13213800</v>
+        <v>210556200</v>
+      </c>
+      <c r="B233">
+        <v>8212281</v>
       </c>
       <c r="C233" s="1">
         <v>-361114800</v>
@@ -15056,10 +15056,10 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
-        <v>216609600</v>
-      </c>
-      <c r="B234" s="1">
-        <v>12483400</v>
+        <v>214013100</v>
+      </c>
+      <c r="B234">
+        <v>7538466</v>
       </c>
       <c r="C234" s="1">
         <v>-360584200</v>
@@ -15070,10 +15070,10 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
-        <v>220057900</v>
-      </c>
-      <c r="B235" s="1">
-        <v>11744260</v>
+        <v>217468300</v>
+      </c>
+      <c r="B235">
+        <v>6858019</v>
       </c>
       <c r="C235" s="1">
         <v>-360056200</v>
@@ -15084,10 +15084,10 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
-        <v>223502500</v>
-      </c>
-      <c r="B236" s="1">
-        <v>10996460</v>
+        <v>220922000</v>
+      </c>
+      <c r="B236">
+        <v>6170881</v>
       </c>
       <c r="C236" s="1">
         <v>-359530900</v>
@@ -15098,10 +15098,10 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
-        <v>226943400</v>
-      </c>
-      <c r="B237" s="1">
-        <v>10240100</v>
+        <v>224374000</v>
+      </c>
+      <c r="B237">
+        <v>5477011</v>
       </c>
       <c r="C237" s="1">
         <v>-359008400</v>
@@ -15112,10 +15112,10 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
-        <v>230380600</v>
+        <v>227824400</v>
       </c>
       <c r="B238">
-        <v>9475273</v>
+        <v>4776390</v>
       </c>
       <c r="C238" s="1">
         <v>-358488400</v>
@@ -15126,10 +15126,10 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
-        <v>233814000</v>
+        <v>231273000</v>
       </c>
       <c r="B239">
-        <v>8702138</v>
+        <v>4069020</v>
       </c>
       <c r="C239" s="1">
         <v>-357971100</v>
@@ -15140,10 +15140,10 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
-        <v>237243500</v>
+        <v>234719900</v>
       </c>
       <c r="B240">
-        <v>7920853</v>
+        <v>3354928</v>
       </c>
       <c r="C240" s="1">
         <v>-357456400</v>
@@ -15154,10 +15154,10 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
-        <v>240669200</v>
+        <v>238164900</v>
       </c>
       <c r="B241">
-        <v>7131604</v>
+        <v>2634161</v>
       </c>
       <c r="C241" s="1">
         <v>-356944400</v>
@@ -15168,10 +15168,10 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
-        <v>244091000</v>
+        <v>241608200</v>
       </c>
       <c r="B242">
-        <v>6334604</v>
+        <v>1906792</v>
       </c>
       <c r="C242" s="1">
         <v>-356434800</v>
@@ -15182,10 +15182,10 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
-        <v>247508900</v>
+        <v>245049500</v>
       </c>
       <c r="B243">
-        <v>5530088</v>
+        <v>1172919</v>
       </c>
       <c r="C243" s="1">
         <v>-355928000</v>
@@ -15196,10 +15196,10 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
-        <v>250922900</v>
+        <v>248489000</v>
       </c>
       <c r="B244">
-        <v>4718318</v>
+        <v>432664.3</v>
       </c>
       <c r="C244" s="1">
         <v>-354919300</v>
@@ -15210,10 +15210,10 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
-        <v>254333000</v>
+        <v>251926600</v>
       </c>
       <c r="B245">
-        <v>3899582</v>
+        <v>-313822.40000000002</v>
       </c>
       <c r="C245" s="1">
         <v>-353920600</v>
@@ -15224,10 +15224,10 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
-        <v>257739200</v>
+        <v>255362200</v>
       </c>
       <c r="B246">
-        <v>3074191</v>
+        <v>-1066366</v>
       </c>
       <c r="C246" s="1">
         <v>-352932000</v>
@@ -15238,10 +15238,10 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
-        <v>261141500</v>
+        <v>258795800</v>
       </c>
       <c r="B247">
-        <v>2242484</v>
+        <v>-1824766</v>
       </c>
       <c r="C247" s="1">
         <v>-351952600</v>
@@ -15252,10 +15252,10 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
-        <v>264539900</v>
+        <v>262227400</v>
       </c>
       <c r="B248">
-        <v>1404826</v>
+        <v>-2588791</v>
       </c>
       <c r="C248" s="1">
         <v>-350981300</v>
@@ -15266,10 +15266,10 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
-        <v>267934300</v>
+        <v>265657000</v>
       </c>
       <c r="B249">
-        <v>561604.9</v>
+        <v>-3358188</v>
       </c>
       <c r="C249" s="1">
         <v>-350017900</v>
@@ -15280,10 +15280,10 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
-        <v>271325000</v>
+        <v>269084600</v>
       </c>
       <c r="B250">
-        <v>-286762.90000000002</v>
+        <v>-4132673</v>
       </c>
       <c r="C250" s="1">
         <v>-349062200</v>
@@ -15294,10 +15294,10 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
-        <v>274711700</v>
+        <v>272510000</v>
       </c>
       <c r="B251">
-        <v>-1139837</v>
+        <v>-4911936</v>
       </c>
       <c r="C251" s="1">
         <v>-348114700</v>
@@ -15308,10 +15308,10 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
-        <v>278094700</v>
+        <v>275933400</v>
       </c>
       <c r="B252">
-        <v>-1997153</v>
+        <v>-5695641</v>
       </c>
       <c r="C252" s="1">
         <v>-347174800</v>
@@ -15322,10 +15322,10 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
-        <v>281473800</v>
+        <v>279354700</v>
       </c>
       <c r="B253">
-        <v>-2858220</v>
+        <v>-6483424</v>
       </c>
       <c r="C253" s="1">
         <v>-346242500</v>
@@ -15336,10 +15336,10 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
-        <v>284849300</v>
+        <v>282773800</v>
       </c>
       <c r="B254">
-        <v>-3722524</v>
+        <v>-7274895</v>
       </c>
       <c r="C254" s="1">
         <v>-345317900</v>
@@ -15350,10 +15350,10 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
-        <v>288221000</v>
+        <v>286190700</v>
       </c>
       <c r="B255">
-        <v>-4589529</v>
+        <v>-8069639</v>
       </c>
       <c r="C255" s="1">
         <v>-344400700</v>
@@ -15364,10 +15364,10 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
-        <v>291589200</v>
+        <v>289605500</v>
       </c>
       <c r="B256">
-        <v>-5458675</v>
+        <v>-8867214</v>
       </c>
       <c r="C256" s="1">
         <v>-343491200</v>
@@ -15378,10 +15378,10 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
-        <v>294953700</v>
+        <v>293018100</v>
       </c>
       <c r="B257">
-        <v>-6329380</v>
+        <v>-9667154</v>
       </c>
       <c r="C257" s="1">
         <v>-342589100</v>
@@ -15392,10 +15392,10 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
-        <v>298314700</v>
-      </c>
-      <c r="B258">
-        <v>-7201040</v>
+        <v>296428500</v>
+      </c>
+      <c r="B258" s="1">
+        <v>-10468970</v>
       </c>
       <c r="C258" s="1">
         <v>-341694300</v>
@@ -15406,10 +15406,10 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
-        <v>301672300</v>
-      </c>
-      <c r="B259">
-        <v>-8073033</v>
+        <v>299836700</v>
+      </c>
+      <c r="B259" s="1">
+        <v>-11272150</v>
       </c>
       <c r="C259" s="1">
         <v>-340806600</v>
@@ -15420,10 +15420,10 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
-        <v>305026500</v>
-      </c>
-      <c r="B260">
-        <v>-8944716</v>
+        <v>303242700</v>
+      </c>
+      <c r="B260" s="1">
+        <v>-12076150</v>
       </c>
       <c r="C260" s="1">
         <v>-339926500</v>
@@ -15434,10 +15434,10 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
-        <v>308377300</v>
-      </c>
-      <c r="B261">
-        <v>-9815429</v>
+        <v>306646400</v>
+      </c>
+      <c r="B261" s="1">
+        <v>-12880420</v>
       </c>
       <c r="C261" s="1">
         <v>-339053300</v>
@@ -15448,10 +15448,10 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
-        <v>311724900</v>
+        <v>310047900</v>
       </c>
       <c r="B262" s="1">
-        <v>-10684500</v>
+        <v>-13684380</v>
       </c>
       <c r="C262" s="1">
         <v>-338187300</v>
@@ -15462,10 +15462,10 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
-        <v>315069400</v>
+        <v>313447100</v>
       </c>
       <c r="B263" s="1">
-        <v>-11551220</v>
+        <v>-14487430</v>
       </c>
       <c r="C263" s="1">
         <v>-337328500</v>
@@ -15476,10 +15476,10 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
-        <v>318410800</v>
+        <v>316844100</v>
       </c>
       <c r="B264" s="1">
-        <v>-12414900</v>
+        <v>-15288960</v>
       </c>
       <c r="C264" s="1">
         <v>-336476500</v>
@@ -15490,10 +15490,10 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
-        <v>321749300</v>
+        <v>320238800</v>
       </c>
       <c r="B265" s="1">
-        <v>-13274810</v>
+        <v>-16088330</v>
       </c>
       <c r="C265" s="1">
         <v>-335631600</v>
@@ -15504,10 +15504,10 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
-        <v>325084900</v>
+        <v>323631300</v>
       </c>
       <c r="B266" s="1">
-        <v>-14130210</v>
+        <v>-16884890</v>
       </c>
       <c r="C266" s="1">
         <v>-334792400</v>
@@ -15518,10 +15518,10 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
-        <v>328417700</v>
+        <v>327021400</v>
       </c>
       <c r="B267" s="1">
-        <v>-14980370</v>
+        <v>-17677990</v>
       </c>
       <c r="C267" s="1">
         <v>-333958900</v>
@@ -15532,10 +15532,10 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
-        <v>331747800</v>
+        <v>330409300</v>
       </c>
       <c r="B268" s="1">
-        <v>-15824540</v>
+        <v>-18466940</v>
       </c>
       <c r="C268" s="1">
         <v>-333130900</v>
@@ -15546,10 +15546,10 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
-        <v>335075300</v>
+        <v>333795000</v>
       </c>
       <c r="B269" s="1">
-        <v>-16661950</v>
+        <v>-19251070</v>
       </c>
       <c r="C269" s="1">
         <v>-332308700</v>
@@ -15560,10 +15560,10 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
-        <v>338400400</v>
+        <v>337178400</v>
       </c>
       <c r="B270" s="1">
-        <v>-17491850</v>
+        <v>-20029670</v>
       </c>
       <c r="C270" s="1">
         <v>-331491500</v>
@@ -15574,10 +15574,10 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
-        <v>341723100</v>
+        <v>340559500</v>
       </c>
       <c r="B271" s="1">
-        <v>-18313460</v>
+        <v>-20802040</v>
       </c>
       <c r="C271" s="1">
         <v>-330679900</v>
@@ -15588,10 +15588,10 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
-        <v>345043600</v>
+        <v>343938400</v>
       </c>
       <c r="B272" s="1">
-        <v>-19126020</v>
+        <v>-21567470</v>
       </c>
       <c r="C272" s="1">
         <v>-329873500</v>
@@ -15602,10 +15602,10 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
-        <v>348361900</v>
+        <v>347315000</v>
       </c>
       <c r="B273" s="1">
-        <v>-19928760</v>
+        <v>-22325250</v>
       </c>
       <c r="C273" s="1">
         <v>-329072600</v>
@@ -15616,10 +15616,10 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
-        <v>351678200</v>
+        <v>350689300</v>
       </c>
       <c r="B274" s="1">
-        <v>-20720900</v>
+        <v>-23074660</v>
       </c>
       <c r="C274" s="1">
         <v>-328277000</v>
@@ -15630,10 +15630,10 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
-        <v>354992600</v>
+        <v>354061400</v>
       </c>
       <c r="B275" s="1">
-        <v>-21501690</v>
+        <v>-23814980</v>
       </c>
       <c r="C275" s="1">
         <v>-327486700</v>
@@ -15644,10 +15644,10 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
-        <v>358305200</v>
+        <v>357431300</v>
       </c>
       <c r="B276" s="1">
-        <v>-22270360</v>
+        <v>-24545500</v>
       </c>
       <c r="C276" s="1">
         <v>-326701700</v>
@@ -15658,10 +15658,10 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
-        <v>361616100</v>
+        <v>360798900</v>
       </c>
       <c r="B277" s="1">
-        <v>-23026170</v>
+        <v>-25265500</v>
       </c>
       <c r="C277" s="1">
         <v>-325921900</v>
@@ -15672,10 +15672,10 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
-        <v>364925500</v>
+        <v>364164400</v>
       </c>
       <c r="B278" s="1">
-        <v>-23768360</v>
+        <v>-25974270</v>
       </c>
       <c r="C278" s="1">
         <v>-325147000</v>
@@ -15686,10 +15686,10 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
-        <v>368233400</v>
+        <v>367527600</v>
       </c>
       <c r="B279" s="1">
-        <v>-24496210</v>
+        <v>-26671110</v>
       </c>
       <c r="C279" s="1">
         <v>-324377300</v>
@@ -15700,10 +15700,10 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
-        <v>371540000</v>
+        <v>370888600</v>
       </c>
       <c r="B280" s="1">
-        <v>-25208990</v>
+        <v>-27355320</v>
       </c>
       <c r="C280" s="1">
         <v>-323612600</v>
@@ -15714,10 +15714,10 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
-        <v>374845400</v>
+        <v>374247500</v>
       </c>
       <c r="B281" s="1">
-        <v>-25906010</v>
+        <v>-28026230</v>
       </c>
       <c r="C281" s="1">
         <v>-322853000</v>
@@ -15728,10 +15728,10 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
-        <v>378149800</v>
+        <v>377604200</v>
       </c>
       <c r="B282" s="1">
-        <v>-26586560</v>
+        <v>-28683160</v>
       </c>
       <c r="C282" s="1">
         <v>-322098500</v>
@@ -15742,10 +15742,10 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
-        <v>381453100</v>
+        <v>380958700</v>
       </c>
       <c r="B283" s="1">
-        <v>-27249980</v>
+        <v>-29325450</v>
       </c>
       <c r="C283" s="1">
         <v>-321349000</v>
@@ -15756,10 +15756,10 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
-        <v>384755600</v>
+        <v>384311100</v>
       </c>
       <c r="B284" s="1">
-        <v>-27895620</v>
+        <v>-29952460</v>
       </c>
       <c r="C284" s="1">
         <v>-320604300</v>
@@ -15770,10 +15770,10 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
-        <v>388057400</v>
+        <v>387661400</v>
       </c>
       <c r="B285" s="1">
-        <v>-28522850</v>
+        <v>-30563580</v>
       </c>
       <c r="C285" s="1">
         <v>-319864500</v>
@@ -15784,10 +15784,10 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
-        <v>391358600</v>
+        <v>391009700</v>
       </c>
       <c r="B286" s="1">
-        <v>-29131060</v>
+        <v>-31158200</v>
       </c>
       <c r="C286" s="1">
         <v>-319129800</v>
@@ -15798,10 +15798,10 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
-        <v>394659200</v>
+        <v>394355800</v>
       </c>
       <c r="B287" s="1">
-        <v>-29719670</v>
+        <v>-31735730</v>
       </c>
       <c r="C287" s="1">
         <v>-318399800</v>
@@ -15812,10 +15812,10 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
-        <v>397959500</v>
+        <v>397700000</v>
       </c>
       <c r="B288" s="1">
-        <v>-30288130</v>
+        <v>-32295630</v>
       </c>
       <c r="C288" s="1">
         <v>-317674600</v>
@@ -15826,10 +15826,10 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
-        <v>401259400</v>
+        <v>401042000</v>
       </c>
       <c r="B289" s="1">
-        <v>-30835910</v>
+        <v>-32837350</v>
       </c>
       <c r="C289" s="1">
         <v>-316953500</v>
@@ -15840,10 +15840,10 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
-        <v>404559200</v>
+        <v>404382100</v>
       </c>
       <c r="B290" s="1">
-        <v>-31362510</v>
+        <v>-33360390</v>
       </c>
       <c r="C290" s="1">
         <v>-316236300</v>
@@ -15854,10 +15854,10 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
-        <v>407858900</v>
+        <v>407720300</v>
       </c>
       <c r="B291" s="1">
-        <v>-31867480</v>
+        <v>-33864280</v>
       </c>
       <c r="C291" s="1">
         <v>-315522900</v>
@@ -15868,10 +15868,10 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
-        <v>411158600</v>
+        <v>411056400</v>
       </c>
       <c r="B292" s="1">
-        <v>-32350380</v>
+        <v>-34348570</v>
       </c>
       <c r="C292" s="1">
         <v>-314813400</v>
@@ -15882,10 +15882,10 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
-        <v>414458300</v>
+        <v>414390700</v>
       </c>
       <c r="B293" s="1">
-        <v>-32810820</v>
+        <v>-34812840</v>
       </c>
       <c r="C293" s="1">
         <v>-314107700</v>
@@ -15896,10 +15896,10 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
-        <v>417758300</v>
+        <v>417723000</v>
       </c>
       <c r="B294" s="1">
-        <v>-33248420</v>
+        <v>-35256700</v>
       </c>
       <c r="C294" s="1">
         <v>-313405700</v>
@@ -15910,10 +15910,10 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
-        <v>421058600</v>
+        <v>421053500</v>
       </c>
       <c r="B295" s="1">
-        <v>-33662880</v>
+        <v>-35679820</v>
       </c>
       <c r="C295" s="1">
         <v>-312707300</v>
@@ -15924,10 +15924,10 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
-        <v>424359300</v>
+        <v>424382200</v>
       </c>
       <c r="B296" s="1">
-        <v>-34053910</v>
+        <v>-36081870</v>
       </c>
       <c r="C296" s="1">
         <v>-312012700</v>
@@ -15938,10 +15938,10 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
-        <v>427660400</v>
+        <v>427709000</v>
       </c>
       <c r="B297" s="1">
-        <v>-34421250</v>
+        <v>-36462580</v>
       </c>
       <c r="C297" s="1">
         <v>-311321800</v>
@@ -15952,10 +15952,10 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
-        <v>430962000</v>
+        <v>431034100</v>
       </c>
       <c r="B298" s="1">
-        <v>-34764710</v>
+        <v>-36821720</v>
       </c>
       <c r="C298" s="1">
         <v>-310634800</v>
@@ -15966,10 +15966,10 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
-        <v>434264200</v>
+        <v>434357400</v>
       </c>
       <c r="B299" s="1">
-        <v>-35084110</v>
+        <v>-37159080</v>
       </c>
       <c r="C299" s="1">
         <v>-309951300</v>
@@ -15980,10 +15980,10 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
-        <v>437567100</v>
+        <v>437679100</v>
       </c>
       <c r="B300" s="1">
-        <v>-35379340</v>
+        <v>-37474490</v>
       </c>
       <c r="C300" s="1">
         <v>-309271300</v>
@@ -15994,10 +15994,10 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
-        <v>440870800</v>
+        <v>440999000</v>
       </c>
       <c r="B301" s="1">
-        <v>-35650320</v>
+        <v>-37767850</v>
       </c>
       <c r="C301" s="1">
         <v>-308595100</v>
@@ -16008,10 +16008,10 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
-        <v>444175200</v>
+        <v>444317400</v>
       </c>
       <c r="B302" s="1">
-        <v>-35897000</v>
+        <v>-38039070</v>
       </c>
       <c r="C302" s="1">
         <v>-307922400</v>
@@ -16022,10 +16022,10 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
-        <v>447480500</v>
+        <v>447634100</v>
       </c>
       <c r="B303" s="1">
-        <v>-36119400</v>
+        <v>-38288110</v>
       </c>
       <c r="C303" s="1">
         <v>-307253500</v>
@@ -16036,10 +16036,10 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
-        <v>450786700</v>
+        <v>450949300</v>
       </c>
       <c r="B304" s="1">
-        <v>-36317560</v>
+        <v>-38514990</v>
       </c>
       <c r="C304" s="1">
         <v>-306587700</v>
@@ -16050,10 +16050,10 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
-        <v>454093800</v>
+        <v>454262900</v>
       </c>
       <c r="B305" s="1">
-        <v>-36491590</v>
+        <v>-38719740</v>
       </c>
       <c r="C305" s="1">
         <v>-305925800</v>
@@ -16064,10 +16064,10 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
-        <v>457401900</v>
+        <v>457575000</v>
       </c>
       <c r="B306" s="1">
-        <v>-36641610</v>
+        <v>-38902470</v>
       </c>
       <c r="C306" s="1">
         <v>-305267600</v>
@@ -16078,10 +16078,10 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
-        <v>460711000</v>
+        <v>460885700</v>
       </c>
       <c r="B307" s="1">
-        <v>-36767820</v>
+        <v>-39063300</v>
       </c>
       <c r="C307" s="1">
         <v>-304612700</v>
@@ -16092,10 +16092,10 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
-        <v>464021100</v>
+        <v>464195000</v>
       </c>
       <c r="B308" s="1">
-        <v>-36870450</v>
+        <v>-39202420</v>
       </c>
       <c r="C308" s="1">
         <v>-303961000</v>
@@ -16106,10 +16106,10 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
-        <v>467332400</v>
+        <v>467502900</v>
       </c>
       <c r="B309" s="1">
-        <v>-36949770</v>
+        <v>-39320050</v>
       </c>
       <c r="C309" s="1">
         <v>-303313000</v>
@@ -16120,10 +16120,10 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
-        <v>470644700</v>
+        <v>470809500</v>
       </c>
       <c r="B310" s="1">
-        <v>-37006100</v>
+        <v>-39416450</v>
       </c>
       <c r="C310" s="1">
         <v>-302668500</v>
@@ -16134,10 +16134,10 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
-        <v>473958100</v>
+        <v>474114800</v>
       </c>
       <c r="B311" s="1">
-        <v>-37039800</v>
+        <v>-39491930</v>
       </c>
       <c r="C311" s="1">
         <v>-302027600</v>
@@ -16148,10 +16148,10 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
-        <v>477272600</v>
+        <v>477418800</v>
       </c>
       <c r="B312" s="1">
-        <v>-37051290</v>
+        <v>-39546840</v>
       </c>
       <c r="C312" s="1">
         <v>-301389900</v>
@@ -16162,10 +16162,10 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
-        <v>480588300</v>
+        <v>480721600</v>
       </c>
       <c r="B313" s="1">
-        <v>-37041000</v>
+        <v>-39581580</v>
       </c>
       <c r="C313" s="1">
         <v>-300755500</v>
@@ -16176,10 +16176,10 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
-        <v>483905000</v>
+        <v>484023300</v>
       </c>
       <c r="B314" s="1">
-        <v>-37009440</v>
+        <v>-39596570</v>
       </c>
       <c r="C314" s="1">
         <v>-300124500</v>
@@ -16190,10 +16190,10 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
-        <v>487222900</v>
+        <v>487323900</v>
       </c>
       <c r="B315" s="1">
-        <v>-36957140</v>
+        <v>-39592300</v>
       </c>
       <c r="C315" s="1">
         <v>-299497100</v>
@@ -16204,10 +16204,10 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
-        <v>490541900</v>
+        <v>490623400</v>
       </c>
       <c r="B316" s="1">
-        <v>-36884680</v>
+        <v>-39569280</v>
       </c>
       <c r="C316" s="1">
         <v>-298872800</v>
@@ -16218,10 +16218,10 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
-        <v>493861900</v>
+        <v>493921800</v>
       </c>
       <c r="B317" s="1">
-        <v>-36792670</v>
+        <v>-39528060</v>
       </c>
       <c r="C317" s="1">
         <v>-298251600</v>
@@ -16232,10 +16232,10 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
-        <v>497183000</v>
+        <v>497219300</v>
       </c>
       <c r="B318" s="1">
-        <v>-36681760</v>
+        <v>-39469250</v>
       </c>
       <c r="C318" s="1">
         <v>-297633300</v>
@@ -16246,10 +16246,10 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
-        <v>500505200</v>
+        <v>500515800</v>
       </c>
       <c r="B319" s="1">
-        <v>-36552650</v>
+        <v>-39393460</v>
       </c>
       <c r="C319" s="1">
         <v>-297017600</v>
@@ -16260,10 +16260,10 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
-        <v>503828400</v>
+        <v>503811500</v>
       </c>
       <c r="B320" s="1">
-        <v>-36406070</v>
+        <v>-39301380</v>
       </c>
       <c r="C320" s="1">
         <v>-296404500</v>
@@ -16274,10 +16274,10 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
-        <v>507152600</v>
+        <v>507106300</v>
       </c>
       <c r="B321" s="1">
-        <v>-36242780</v>
+        <v>-39193690</v>
       </c>
       <c r="C321" s="1">
         <v>-295794000</v>
@@ -16288,10 +16288,10 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
-        <v>510477700</v>
+        <v>510400300</v>
       </c>
       <c r="B322" s="1">
-        <v>-36063580</v>
+        <v>-39071130</v>
       </c>
       <c r="C322" s="1">
         <v>-295186100</v>
@@ -16302,10 +16302,10 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
-        <v>513803700</v>
+        <v>513693600</v>
       </c>
       <c r="B323" s="1">
-        <v>-35869290</v>
+        <v>-38934480</v>
       </c>
       <c r="C323" s="1">
         <v>-294580900</v>
@@ -16316,10 +16316,10 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
-        <v>517130700</v>
+        <v>516986200</v>
       </c>
       <c r="B324" s="1">
-        <v>-35660790</v>
+        <v>-38784520</v>
       </c>
       <c r="C324" s="1">
         <v>-293978500</v>
@@ -16330,10 +16330,10 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
-        <v>520458400</v>
+        <v>520278100</v>
       </c>
       <c r="B325" s="1">
-        <v>-35438960</v>
+        <v>-38622080</v>
       </c>
       <c r="C325" s="1">
         <v>-293378400</v>
@@ -16344,10 +16344,10 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
-        <v>523786800</v>
+        <v>523569400</v>
       </c>
       <c r="B326" s="1">
-        <v>-35204720</v>
+        <v>-38448020</v>
       </c>
       <c r="C326" s="1">
         <v>-292780900</v>
@@ -16358,10 +16358,10 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
-        <v>527116100</v>
+        <v>526860200</v>
       </c>
       <c r="B327" s="1">
-        <v>-34959000</v>
+        <v>-38263210</v>
       </c>
       <c r="C327" s="1">
         <v>-292186200</v>
@@ -16372,10 +16372,10 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
-        <v>530445900</v>
+        <v>530150500</v>
       </c>
       <c r="B328" s="1">
-        <v>-34702790</v>
+        <v>-38068560</v>
       </c>
       <c r="C328" s="1">
         <v>-291593800</v>
@@ -16386,10 +16386,10 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
-        <v>533776400</v>
+        <v>533440300</v>
       </c>
       <c r="B329" s="1">
-        <v>-34437060</v>
+        <v>-37864980</v>
       </c>
       <c r="C329" s="1">
         <v>-291004000</v>
@@ -16400,10 +16400,10 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
-        <v>537107400</v>
+        <v>536729700</v>
       </c>
       <c r="B330" s="1">
-        <v>-34162810</v>
+        <v>-37653410</v>
       </c>
       <c r="C330" s="1">
         <v>-290416700</v>
@@ -16414,10 +16414,10 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
-        <v>540438800</v>
+        <v>540018800</v>
       </c>
       <c r="B331" s="1">
-        <v>-33881080</v>
+        <v>-37434830</v>
       </c>
       <c r="C331" s="1">
         <v>-289832000</v>
@@ -16428,10 +16428,10 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
-        <v>543770800</v>
+        <v>543307600</v>
       </c>
       <c r="B332" s="1">
-        <v>-33592910</v>
+        <v>-37210200</v>
       </c>
       <c r="C332" s="1">
         <v>-289249800</v>
@@ -16442,10 +16442,10 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
-        <v>547103000</v>
+        <v>546596100</v>
       </c>
       <c r="B333" s="1">
-        <v>-33299350</v>
+        <v>-36980500</v>
       </c>
       <c r="C333" s="1">
         <v>-288670100</v>
@@ -16456,10 +16456,10 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
-        <v>550435500</v>
+        <v>549884400</v>
       </c>
       <c r="B334" s="1">
-        <v>-33001470</v>
+        <v>-36746740</v>
       </c>
       <c r="C334" s="1">
         <v>-288092900</v>
@@ -16470,10 +16470,10 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
-        <v>553768300</v>
+        <v>553172500</v>
       </c>
       <c r="B335" s="1">
-        <v>-32700330</v>
+        <v>-36509930</v>
       </c>
       <c r="C335" s="1">
         <v>-287518100</v>
@@ -16484,10 +16484,10 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
-        <v>557101100</v>
+        <v>556460600</v>
       </c>
       <c r="B336" s="1">
-        <v>-32397020</v>
+        <v>-36271080</v>
       </c>
       <c r="C336" s="1">
         <v>-286945900</v>
@@ -16498,10 +16498,10 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
-        <v>560434000</v>
+        <v>559748600</v>
       </c>
       <c r="B337" s="1">
-        <v>-32092620</v>
+        <v>-36031210</v>
       </c>
       <c r="C337" s="1">
         <v>-286376200</v>
